--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V411"/>
+  <dimension ref="A1:V416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="G201" t="n">
@@ -18889,14 +18889,14 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>3.31</v>
+        <v>2.35</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -18904,48 +18904,48 @@
         </is>
       </c>
       <c r="L201" t="n">
-        <v>3.56</v>
+        <v>2.21</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
+          <t>03/06/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>28/05/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
           <t>03/06/2023 06:57</t>
         </is>
       </c>
-      <c r="N201" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O201" t="inlineStr">
+      <c r="R201" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S201" t="inlineStr">
         <is>
           <t>28/05/2023 08:12</t>
         </is>
       </c>
-      <c r="P201" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q201" t="inlineStr">
-        <is>
-          <t>03/06/2023 06:57</t>
-        </is>
-      </c>
-      <c r="R201" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S201" t="inlineStr">
-        <is>
-          <t>28/05/2023 08:12</t>
-        </is>
-      </c>
       <c r="T201" t="n">
-        <v>2.16</v>
+        <v>3.32</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>03/06/2023 06:57</t>
+          <t>03/06/2023 06:59</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-v-varen-nagasaki/vsnPM8ik/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-mito/QZ5lTAEL/</t>
         </is>
       </c>
     </row>
@@ -18973,71 +18973,71 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G202" t="n">
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
         <v>1</v>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Mito</t>
-        </is>
-      </c>
-      <c r="I202" t="n">
-        <v>2</v>
-      </c>
       <c r="J202" t="n">
-        <v>2.35</v>
+        <v>4.16</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>28/05/2023 08:12</t>
+          <t>28/05/2023 07:12</t>
         </is>
       </c>
       <c r="L202" t="n">
-        <v>2.21</v>
+        <v>3.28</v>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>03/06/2023 06:59</t>
+          <t>03/06/2023 06:58</t>
         </is>
       </c>
       <c r="N202" t="n">
-        <v>3.29</v>
+        <v>3.82</v>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>28/05/2023 08:12</t>
+          <t>28/05/2023 07:12</t>
         </is>
       </c>
       <c r="P202" t="n">
-        <v>3.57</v>
+        <v>3.94</v>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
-          <t>03/06/2023 06:57</t>
+          <t>03/06/2023 06:58</t>
         </is>
       </c>
       <c r="R202" t="n">
-        <v>3.19</v>
+        <v>1.78</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
-          <t>28/05/2023 08:12</t>
+          <t>28/05/2023 07:12</t>
         </is>
       </c>
       <c r="T202" t="n">
-        <v>3.32</v>
+        <v>2.1</v>
       </c>
       <c r="U202" t="inlineStr">
         <is>
-          <t>03/06/2023 06:59</t>
+          <t>03/06/2023 06:58</t>
         </is>
       </c>
       <c r="V202" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-mito/QZ5lTAEL/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-shimizu-s-pulse/nq7pUjaF/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="I204" t="n">
         <v>1</v>
       </c>
       <c r="J204" t="n">
-        <v>4.16</v>
+        <v>3.31</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>28/05/2023 07:12</t>
+          <t>28/05/2023 08:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>3.28</v>
+        <v>3.56</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>03/06/2023 06:58</t>
+          <t>03/06/2023 06:57</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.82</v>
+        <v>3.26</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>28/05/2023 07:12</t>
+          <t>28/05/2023 08:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.94</v>
+        <v>3.45</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>03/06/2023 06:58</t>
+          <t>03/06/2023 06:57</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>28/05/2023 07:12</t>
+          <t>28/05/2023 08:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>03/06/2023 06:58</t>
+          <t>03/06/2023 06:57</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-shimizu-s-pulse/nq7pUjaF/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-v-varen-nagasaki/vsnPM8ik/</t>
         </is>
       </c>
     </row>
@@ -38266,6 +38266,466 @@
       <c r="V411" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-fujieda-myfc/bZQVuwj5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E412" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="G412" t="n">
+        <v>1</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Mito</t>
+        </is>
+      </c>
+      <c r="I412" t="n">
+        <v>1</v>
+      </c>
+      <c r="J412" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L412" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N412" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P412" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:59</t>
+        </is>
+      </c>
+      <c r="R412" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T412" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:59</t>
+        </is>
+      </c>
+      <c r="V412" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E413" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="G413" t="n">
+        <v>2</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I413" t="n">
+        <v>2</v>
+      </c>
+      <c r="J413" t="n">
+        <v>2</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L413" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:52</t>
+        </is>
+      </c>
+      <c r="N413" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:52</t>
+        </is>
+      </c>
+      <c r="R413" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T413" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:52</t>
+        </is>
+      </c>
+      <c r="V413" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-vegalta-sendai/WnPwvHKH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E414" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>Kanazawa</t>
+        </is>
+      </c>
+      <c r="G414" t="n">
+        <v>0</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Blaublitz</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>2</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L414" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N414" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P414" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R414" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T414" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:56</t>
+        </is>
+      </c>
+      <c r="V414" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-blaublitz/Iwbddbzn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E415" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>Machida</t>
+        </is>
+      </c>
+      <c r="G415" t="n">
+        <v>3</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Kofu</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>3</v>
+      </c>
+      <c r="J415" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L415" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N415" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P415" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:53</t>
+        </is>
+      </c>
+      <c r="R415" t="n">
+        <v>5</v>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T415" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:57</t>
+        </is>
+      </c>
+      <c r="V415" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kofu/4zfhcvLu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E416" s="2" t="n">
+        <v>45207.29166666666</v>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="G416" t="n">
+        <v>2</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Tochigi SC</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
+      <c r="J416" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="L416" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N416" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P416" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R416" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="T416" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U416" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="V416" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-tochigi-sc/hdQZvc5B/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V416"/>
+  <dimension ref="A1:V417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38729,6 +38729,98 @@
         </is>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E417" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>Kusatsu</t>
+        </is>
+      </c>
+      <c r="G417" t="n">
+        <v>0</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Okayama</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
+      <c r="J417" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>01/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L417" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M417" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N417" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>01/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P417" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q417" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R417" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S417" t="inlineStr">
+        <is>
+          <t>01/10/2023 11:12</t>
+        </is>
+      </c>
+      <c r="T417" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V417" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/thespakusatsu-gunma-okayama/lOJrwyzO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V419"/>
+  <dimension ref="A1:V420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,63 +18521,63 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>21/05/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>28/05/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>3</v>
       </c>
-      <c r="J197" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>21/05/2023 08:12</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M197" t="inlineStr">
-        <is>
-          <t>28/05/2023 06:57</t>
-        </is>
-      </c>
-      <c r="N197" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>21/05/2023 08:12</t>
+          <t>21/05/2023 07:12</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.54</v>
+        <v>2.83</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>28/05/2023 06:25</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>2.87</v>
+        <v>2.96</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>21/05/2023 08:12</t>
+          <t>21/05/2023 07:12</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>28/05/2023 06:57</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-montedio-yamagata/xEPg7Ti2/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-oita-trinita/Uk15TJ84/</t>
         </is>
       </c>
     </row>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G198" t="n">
@@ -18613,63 +18613,63 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J198" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>21/05/2023 07:12</t>
+          <t>21/05/2023 08:12</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:57</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>21/05/2023 07:12</t>
+          <t>21/05/2023 08:12</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>2.83</v>
+        <v>3.54</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:25</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>21/05/2023 07:12</t>
+          <t>21/05/2023 08:12</t>
         </is>
       </c>
       <c r="T198" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:57</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-oita-trinita/Uk15TJ84/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-montedio-yamagata/xEPg7Ti2/</t>
         </is>
       </c>
     </row>
@@ -39002,6 +39002,98 @@
       <c r="V419" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-thespakusatsu-gunma/GvZUIcVP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E420" s="2" t="n">
+        <v>45219.50347222222</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>Kofu</t>
+        </is>
+      </c>
+      <c r="G420" t="n">
+        <v>1</v>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>1</v>
+      </c>
+      <c r="J420" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>12/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L420" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
+          <t>20/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N420" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>12/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P420" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q420" t="inlineStr">
+        <is>
+          <t>20/10/2023 11:53</t>
+        </is>
+      </c>
+      <c r="R420" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S420" t="inlineStr">
+        <is>
+          <t>12/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T420" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>20/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V420" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kofu-v-varen-nagasaki/vgn5fx5b/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V420"/>
+  <dimension ref="A1:V421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39097,6 +39097,98 @@
         </is>
       </c>
     </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E421" s="2" t="n">
+        <v>45220.25</v>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="G421" t="n">
+        <v>1</v>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>7</v>
+      </c>
+      <c r="J421" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L421" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M421" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:47</t>
+        </is>
+      </c>
+      <c r="N421" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P421" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q421" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:47</t>
+        </is>
+      </c>
+      <c r="R421" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S421" t="inlineStr">
+        <is>
+          <t>13/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T421" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U421" t="inlineStr">
+        <is>
+          <t>21/10/2023 05:47</t>
+        </is>
+      </c>
+      <c r="V421" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-shimizu-s-pulse/nJo9gdK4/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V421"/>
+  <dimension ref="A1:V430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18145,22 +18145,22 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>3.83</v>
+        <v>2.77</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -18168,15 +18168,15 @@
         </is>
       </c>
       <c r="L193" t="n">
-        <v>4.43</v>
+        <v>2.76</v>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>28/05/2023 06:47</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="N193" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="O193" t="inlineStr">
         <is>
@@ -18184,15 +18184,15 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>3.33</v>
+        <v>2.83</v>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
-          <t>28/05/2023 06:47</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="R193" t="n">
-        <v>2.14</v>
+        <v>2.96</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -18200,16 +18200,16 @@
         </is>
       </c>
       <c r="T193" t="n">
-        <v>1.96</v>
+        <v>3.15</v>
       </c>
       <c r="U193" t="inlineStr">
         <is>
-          <t>28/05/2023 06:47</t>
+          <t>28/05/2023 06:59</t>
         </is>
       </c>
       <c r="V193" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-machida-zelvia/vT6j89xd/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-oita-trinita/Uk15TJ84/</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,63 +18521,63 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J197" t="n">
-        <v>2.77</v>
+        <v>2.55</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>21/05/2023 07:12</t>
+          <t>21/05/2023 08:12</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:57</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>21/05/2023 07:12</t>
+          <t>21/05/2023 08:12</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>2.83</v>
+        <v>3.54</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:25</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>2.96</v>
+        <v>2.87</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
-          <t>21/05/2023 07:12</t>
+          <t>21/05/2023 08:12</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.15</v>
+        <v>2.7</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>28/05/2023 06:59</t>
+          <t>28/05/2023 06:57</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-oita-trinita/Uk15TJ84/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-montedio-yamagata/xEPg7Ti2/</t>
         </is>
       </c>
     </row>
@@ -18605,71 +18605,71 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J198" t="n">
-        <v>2.55</v>
+        <v>3.83</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>21/05/2023 08:12</t>
+          <t>21/05/2023 07:12</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>2.63</v>
+        <v>4.43</v>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>28/05/2023 06:57</t>
+          <t>28/05/2023 06:47</t>
         </is>
       </c>
       <c r="N198" t="n">
-        <v>3.3</v>
+        <v>3.17</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>21/05/2023 08:12</t>
+          <t>21/05/2023 07:12</t>
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3.54</v>
+        <v>3.33</v>
       </c>
       <c r="Q198" t="inlineStr">
         <is>
-          <t>28/05/2023 06:25</t>
+          <t>28/05/2023 06:47</t>
         </is>
       </c>
       <c r="R198" t="n">
-        <v>2.87</v>
+        <v>2.14</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
-          <t>21/05/2023 08:12</t>
+          <t>21/05/2023 07:12</t>
         </is>
       </c>
       <c r="T198" t="n">
-        <v>2.7</v>
+        <v>1.96</v>
       </c>
       <c r="U198" t="inlineStr">
         <is>
-          <t>28/05/2023 06:57</t>
+          <t>28/05/2023 06:47</t>
         </is>
       </c>
       <c r="V198" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-montedio-yamagata/xEPg7Ti2/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-machida-zelvia/vT6j89xd/</t>
         </is>
       </c>
     </row>
@@ -38293,22 +38293,22 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J412" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -38316,7 +38316,7 @@
         </is>
       </c>
       <c r="L412" t="n">
-        <v>1.56</v>
+        <v>1.87</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         </is>
       </c>
       <c r="N412" t="n">
-        <v>4.08</v>
+        <v>3.91</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
@@ -38332,15 +38332,15 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>4.24</v>
+        <v>3.66</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:53</t>
         </is>
       </c>
       <c r="R412" t="n">
-        <v>5.36</v>
+        <v>5</v>
       </c>
       <c r="S412" t="inlineStr">
         <is>
@@ -38348,16 +38348,16 @@
         </is>
       </c>
       <c r="T412" t="n">
-        <v>6.23</v>
+        <v>4.42</v>
       </c>
       <c r="U412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kofu/4zfhcvLu/</t>
         </is>
       </c>
     </row>
@@ -38385,22 +38385,22 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I413" t="n">
         <v>2</v>
       </c>
       <c r="J413" t="n">
-        <v>2</v>
+        <v>2.49</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -38408,15 +38408,15 @@
         </is>
       </c>
       <c r="L413" t="n">
-        <v>1.92</v>
+        <v>2.73</v>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:52</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="N413" t="n">
-        <v>3.66</v>
+        <v>3.2</v>
       </c>
       <c r="O413" t="inlineStr">
         <is>
@@ -38424,15 +38424,15 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3.6</v>
+        <v>3.09</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:52</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="R413" t="n">
-        <v>3.68</v>
+        <v>3.05</v>
       </c>
       <c r="S413" t="inlineStr">
         <is>
@@ -38440,16 +38440,16 @@
         </is>
       </c>
       <c r="T413" t="n">
-        <v>4.26</v>
+        <v>2.92</v>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:52</t>
+          <t>08/10/2023 06:56</t>
         </is>
       </c>
       <c r="V413" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-vegalta-sendai/WnPwvHKH/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-blaublitz/Iwbddbzn/</t>
         </is>
       </c>
     </row>
@@ -38477,22 +38477,22 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G414" t="n">
+        <v>2</v>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Tochigi SC</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
         <v>0</v>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>Blaublitz</t>
-        </is>
-      </c>
-      <c r="I414" t="n">
-        <v>2</v>
-      </c>
       <c r="J414" t="n">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         </is>
       </c>
       <c r="L414" t="n">
-        <v>2.73</v>
+        <v>2.32</v>
       </c>
       <c r="M414" t="inlineStr">
         <is>
@@ -38508,7 +38508,7 @@
         </is>
       </c>
       <c r="N414" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
@@ -38516,7 +38516,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         </is>
       </c>
       <c r="R414" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="S414" t="inlineStr">
         <is>
@@ -38532,16 +38532,16 @@
         </is>
       </c>
       <c r="T414" t="n">
-        <v>2.92</v>
+        <v>3.65</v>
       </c>
       <c r="U414" t="inlineStr">
         <is>
-          <t>08/10/2023 06:56</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="V414" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-blaublitz/Iwbddbzn/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-tochigi-sc/hdQZvc5B/</t>
         </is>
       </c>
     </row>
@@ -38569,22 +38569,22 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I415" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J415" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         </is>
       </c>
       <c r="L415" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="M415" t="inlineStr">
         <is>
@@ -38600,7 +38600,7 @@
         </is>
       </c>
       <c r="N415" t="n">
-        <v>3.91</v>
+        <v>4.08</v>
       </c>
       <c r="O415" t="inlineStr">
         <is>
@@ -38608,15 +38608,15 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3.66</v>
+        <v>4.24</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="R415" t="n">
-        <v>5</v>
+        <v>5.36</v>
       </c>
       <c r="S415" t="inlineStr">
         <is>
@@ -38624,16 +38624,16 @@
         </is>
       </c>
       <c r="T415" t="n">
-        <v>4.42</v>
+        <v>6.23</v>
       </c>
       <c r="U415" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="V415" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kofu/4zfhcvLu/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
         </is>
       </c>
     </row>
@@ -38661,7 +38661,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G416" t="n">
@@ -38669,14 +38669,14 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J416" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -38684,15 +38684,15 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>2.32</v>
+        <v>1.92</v>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="N416" t="n">
-        <v>3.48</v>
+        <v>3.66</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
@@ -38700,15 +38700,15 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="R416" t="n">
-        <v>3.12</v>
+        <v>3.68</v>
       </c>
       <c r="S416" t="inlineStr">
         <is>
@@ -38716,16 +38716,16 @@
         </is>
       </c>
       <c r="T416" t="n">
-        <v>3.65</v>
+        <v>4.26</v>
       </c>
       <c r="U416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="V416" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-tochigi-sc/hdQZvc5B/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-vegalta-sendai/WnPwvHKH/</t>
         </is>
       </c>
     </row>
@@ -39186,6 +39186,834 @@
       <c r="V421" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-shimizu-s-pulse/nJo9gdK4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E422" s="2" t="n">
+        <v>45221.22916666666</v>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="G422" t="n">
+        <v>2</v>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Okayama</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>2</v>
+      </c>
+      <c r="J422" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L422" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M422" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:24</t>
+        </is>
+      </c>
+      <c r="N422" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P422" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q422" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:19</t>
+        </is>
+      </c>
+      <c r="R422" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S422" t="inlineStr">
+        <is>
+          <t>14/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T422" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:24</t>
+        </is>
+      </c>
+      <c r="V422" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-okayama/YF7v9yKi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E423" s="2" t="n">
+        <v>45221.25</v>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Kumamoto</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>0</v>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Machida</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>3</v>
+      </c>
+      <c r="J423" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L423" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="M423" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:55</t>
+        </is>
+      </c>
+      <c r="N423" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P423" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q423" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R423" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S423" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T423" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>22/10/2023 05:44</t>
+        </is>
+      </c>
+      <c r="V423" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-machida-zelvia/vDAn7Fl4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E424" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Tokushima</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>0</v>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Iwata</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>3</v>
+      </c>
+      <c r="J424" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L424" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M424" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:54</t>
+        </is>
+      </c>
+      <c r="N424" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P424" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q424" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R424" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S424" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T424" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:40</t>
+        </is>
+      </c>
+      <c r="V424" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-iwata/Sx7r8eZc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E425" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>Blaublitz</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
+        <v>1</v>
+      </c>
+      <c r="J425" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L425" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M425" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:45</t>
+        </is>
+      </c>
+      <c r="N425" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P425" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:45</t>
+        </is>
+      </c>
+      <c r="R425" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S425" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T425" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:45</t>
+        </is>
+      </c>
+      <c r="V425" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-vegalta-sendai/Q9pDhGZA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E426" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>2</v>
+      </c>
+      <c r="H426" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I426" t="n">
+        <v>3</v>
+      </c>
+      <c r="J426" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L426" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M426" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N426" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O426" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P426" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q426" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:16</t>
+        </is>
+      </c>
+      <c r="R426" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S426" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T426" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="V426" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-omiya-ardija/fP8zAH4o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E427" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Kanazawa</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>0</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
+        <v>1</v>
+      </c>
+      <c r="J427" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L427" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M427" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:56</t>
+        </is>
+      </c>
+      <c r="N427" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O427" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P427" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q427" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:56</t>
+        </is>
+      </c>
+      <c r="R427" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S427" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T427" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U427" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:56</t>
+        </is>
+      </c>
+      <c r="V427" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-montedio-yamagata/I7PioYRp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E428" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Mito</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>1</v>
+      </c>
+      <c r="H428" t="inlineStr">
+        <is>
+          <t>Kusatsu</t>
+        </is>
+      </c>
+      <c r="I428" t="n">
+        <v>2</v>
+      </c>
+      <c r="J428" t="n">
+        <v>2</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L428" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M428" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N428" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O428" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P428" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q428" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R428" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S428" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T428" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U428" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:56</t>
+        </is>
+      </c>
+      <c r="V428" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/mito-thespakusatsu-gunma/8YZHizkH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E429" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Tochigi SC</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>1</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
+        <v>1</v>
+      </c>
+      <c r="J429" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L429" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M429" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N429" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O429" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P429" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q429" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R429" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T429" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:31</t>
+        </is>
+      </c>
+      <c r="V429" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-oita-trinita/MyvMjf4N/</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E430" s="2" t="n">
+        <v>45221.29166666666</v>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Verdy</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>3</v>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="I430" t="n">
+        <v>2</v>
+      </c>
+      <c r="J430" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L430" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M430" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:56</t>
+        </is>
+      </c>
+      <c r="N430" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P430" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:48</t>
+        </is>
+      </c>
+      <c r="R430" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T430" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:51</t>
+        </is>
+      </c>
+      <c r="V430" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-chiba/GbwQkEJT/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V441"/>
+  <dimension ref="A1:V442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3.22</v>
+        <v>2.97</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>25/02/2023 05:55</t>
+          <t>25/02/2023 05:54</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>3.42</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>25/02/2023 05:55</t>
+          <t>25/02/2023 05:54</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.88</v>
+        <v>2.58</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>25/02/2023 05:55</t>
+          <t>25/02/2023 05:54</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-montedio-yamagata/GA7Z05M7/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-v-varen-nagasaki/UDeHPla8/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.83</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.97</v>
+        <v>3.22</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>25/02/2023 05:54</t>
+          <t>25/02/2023 05:55</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>25/02/2023 05:54</t>
+          <t>25/02/2023 05:55</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.58</v>
+        <v>2.88</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>25/02/2023 05:54</t>
+          <t>25/02/2023 05:55</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-v-varen-nagasaki/UDeHPla8/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-montedio-yamagata/GA7Z05M7/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.13</v>
+        <v>2.18</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>26/02/2023 19:12</t>
+          <t>26/02/2023 05:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.8</v>
+        <v>2.61</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:58</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>26/02/2023 19:12</t>
+          <t>26/02/2023 05:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.37</v>
+        <v>3.17</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:49</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.43</v>
+        <v>3.63</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>26/02/2023 19:12</t>
+          <t>26/02/2023 05:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.11</v>
+        <v>2.99</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:58</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-shimizu-s-pulse/0QyAIS9C/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-vegalta-sendai/MZx6J8f6/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>26/02/2023 05:12</t>
+          <t>26/02/2023 19:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.61</v>
+        <v>2.87</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>04/03/2023 05:58</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>26/02/2023 05:12</t>
+          <t>26/02/2023 19:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.17</v>
+        <v>3.33</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>04/03/2023 05:49</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.63</v>
+        <v>2.87</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>26/02/2023 05:12</t>
+          <t>26/02/2023 19:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>04/03/2023 05:58</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-vegalta-sendai/MZx6J8f6/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwata-montedio-yamagata/Q7qcLUPg/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,11 +2804,11 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.87</v>
+        <v>2.07</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:56</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:56</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.6</v>
+        <v>3.98</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>04/03/2023 05:59</t>
+          <t>04/03/2023 05:56</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwata-montedio-yamagata/Q7qcLUPg/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-blaublitz/vBm1Klu0/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.57</v>
+        <v>3.13</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.07</v>
+        <v>3.8</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>04/03/2023 05:56</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>04/03/2023 05:56</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.02</v>
+        <v>2.43</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.98</v>
+        <v>2.11</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>04/03/2023 05:56</t>
+          <t>04/03/2023 05:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-blaublitz/vBm1Klu0/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-shimizu-s-pulse/0QyAIS9C/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Renofa Yamaguchi</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.08</v>
+        <v>2.51</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>05/03/2023 04:58</t>
+          <t>05/03/2023 04:57</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.2</v>
+        <v>3.52</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>05/03/2023 04:58</t>
+          <t>05/03/2023 04:56</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.53</v>
+        <v>3.92</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.89</v>
+        <v>2.97</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>05/03/2023 04:58</t>
+          <t>05/03/2023 04:57</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-renofa-yamaguchi/f1jDHnPI/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-omiya-ardija/YikHG6vP/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.51</v>
+        <v>2.08</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>05/03/2023 04:57</t>
+          <t>05/03/2023 04:58</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.52</v>
+        <v>3.2</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>05/03/2023 04:56</t>
+          <t>05/03/2023 04:58</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.92</v>
+        <v>3.53</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.97</v>
+        <v>3.89</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>05/03/2023 04:57</t>
+          <t>05/03/2023 04:58</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-omiya-ardija/YikHG6vP/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-renofa-yamaguchi/f1jDHnPI/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.37</v>
+        <v>3.9</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.64</v>
+        <v>4.19</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>05/03/2023 05:59</t>
+          <t>05/03/2023 05:56</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.2</v>
+        <v>3.41</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>05/03/2023 05:59</t>
+          <t>05/03/2023 05:50</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.33</v>
+        <v>1.95</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>05/03/2023 05:57</t>
+          <t>05/03/2023 05:38</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-kofu/Eo7PKIjt/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-machida-zelvia/dOudI6ir/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.91</v>
+        <v>2.37</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26/02/2023 19:12</t>
+          <t>26/02/2023 06:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.92</v>
+        <v>2.64</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>05/03/2023 05:58</t>
+          <t>05/03/2023 05:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>26/02/2023 19:12</t>
+          <t>26/02/2023 06:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.19</v>
+        <v>3.37</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>05/03/2023 05:58</t>
+          <t>05/03/2023 05:59</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.57</v>
+        <v>3.33</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>26/02/2023 19:12</t>
+          <t>26/02/2023 06:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.98</v>
+        <v>2.8</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>05/03/2023 05:58</t>
+          <t>05/03/2023 05:57</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/oita-trinita-tochigi-sc/na5XIdLh/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-kofu/Eo7PKIjt/</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3433,63 +3433,63 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>26/02/2023 06:12</t>
+          <t>26/02/2023 19:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4.19</v>
+        <v>1.92</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>05/03/2023 05:56</t>
+          <t>05/03/2023 05:58</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>26/02/2023 06:12</t>
+          <t>26/02/2023 19:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.46</v>
+        <v>3.19</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>05/03/2023 05:50</t>
+          <t>05/03/2023 05:58</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.95</v>
+        <v>4.57</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>26/02/2023 06:12</t>
+          <t>26/02/2023 19:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.97</v>
+        <v>4.98</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>05/03/2023 05:38</t>
+          <t>05/03/2023 05:58</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-machida-zelvia/dOudI6ir/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/oita-trinita-tochigi-sc/na5XIdLh/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.64</v>
+        <v>3.5</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,48 +4736,48 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.79</v>
+        <v>3.02</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>19/03/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>12/03/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>19/03/2023 05:59</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>12/03/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
           <t>19/03/2023 05:58</t>
         </is>
       </c>
-      <c r="N47" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:36</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T47" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:58</t>
-        </is>
-      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-renofa-yamaguchi/URnM9sKB/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-mito/0ne5DPKn/</t>
         </is>
       </c>
     </row>
@@ -4897,71 +4897,71 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.07</v>
+        <v>2.64</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.31</v>
+        <v>2.79</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>19/03/2023 05:55</t>
+          <t>19/03/2023 05:58</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>19/03/2023 05:55</t>
+          <t>19/03/2023 05:36</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 06:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>19/03/2023 05:55</t>
+          <t>19/03/2023 05:58</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-v-varen-nagasaki/4puZ6u4U/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-renofa-yamaguchi/URnM9sKB/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>12/03/2023 06:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.02</v>
+        <v>1.85</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
+          <t>19/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>12/03/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>19/03/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>12/03/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>19/03/2023 05:59</t>
         </is>
       </c>
-      <c r="N50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P50" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:59</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>12/03/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:58</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-mito/0ne5DPKn/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-tokushima/vwf9Cqzg/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.23</v>
+        <v>2.89</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 09:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.56</v>
+        <v>2.9</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>19/03/2023 05:45</t>
+          <t>19/03/2023 05:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.27</v>
+        <v>3.18</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 09:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.03</v>
+        <v>3.19</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>19/03/2023 05:50</t>
+          <t>19/03/2023 05:18</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.57</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>12/03/2023 16:12</t>
+          <t>12/03/2023 09:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.19</v>
+        <v>2.67</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>19/03/2023 05:45</t>
+          <t>19/03/2023 05:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/oita-trinita-chiba/f9GvSOZu/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-machida-zelvia/IwU4GpMf/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.89</v>
+        <v>2.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>12/03/2023 09:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>19/03/2023 05:57</t>
+          <t>19/03/2023 05:45</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.18</v>
+        <v>3.27</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>12/03/2023 09:12</t>
+          <t>12/03/2023 16:12</t>
         </is>
       </c>
       <c r="P53" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>19/03/2023 05:50</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>12/03/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
         <v>3.19</v>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>19/03/2023 05:18</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>12/03/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T53" t="n">
-        <v>2.67</v>
-      </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>19/03/2023 05:57</t>
+          <t>19/03/2023 05:45</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-machida-zelvia/IwU4GpMf/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/oita-trinita-chiba/f9GvSOZu/</t>
         </is>
       </c>
     </row>
@@ -5357,22 +5357,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.1</v>
+        <v>2.41</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.85</v>
+        <v>2.69</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>19/03/2023 05:58</t>
+          <t>19/03/2023 05:31</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.53</v>
+        <v>3.13</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>19/03/2023 05:58</t>
+          <t>19/03/2023 05:31</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.83</v>
+        <v>3.18</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.7</v>
+        <v>2.93</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>19/03/2023 05:59</t>
+          <t>19/03/2023 05:31</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-tokushima/vwf9Cqzg/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-kofu/QgtV7LlO/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.64</v>
+        <v>2.07</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.37</v>
+        <v>2.31</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>19/03/2023 05:58</t>
+          <t>19/03/2023 05:55</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.09</v>
+        <v>3.33</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>19/03/2023 05:34</t>
+          <t>19/03/2023 05:55</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>2.43</v>
+        <v>3.33</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>19/03/2023 05:58</t>
+          <t>19/03/2023 05:55</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/thespakusatsu-gunma-vegalta-sendai/z5mIAN45/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kumamoto-v-varen-nagasaki/4puZ6u4U/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Kofu</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.41</v>
+        <v>3.64</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.69</v>
+        <v>3.37</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>19/03/2023 05:31</t>
+          <t>19/03/2023 05:58</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>19/03/2023 05:31</t>
+          <t>19/03/2023 05:34</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>3.18</v>
+        <v>2.22</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.93</v>
+        <v>2.43</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>19/03/2023 05:31</t>
+          <t>19/03/2023 05:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-kofu/QgtV7LlO/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/thespakusatsu-gunma-vegalta-sendai/z5mIAN45/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.37</v>
+        <v>2.84</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 06:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.68</v>
+        <v>2.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>25/03/2023 05:59</t>
+          <t>25/03/2023 05:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 06:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.01</v>
+        <v>3.28</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>25/03/2023 05:29</t>
+          <t>25/03/2023 05:56</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.48</v>
+        <v>2.66</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>19/03/2023 16:42</t>
+          <t>19/03/2023 06:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>25/03/2023 05:57</t>
+          <t>25/03/2023 05:56</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-okayama/AXGE44eb/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-montedio-yamagata/Wn5N2rQA/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Kanazawa</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>3</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Oita Trinita</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>1.77</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.18</v>
+        <v>1.72</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>25/03/2023 05:54</t>
+          <t>25/03/2023 05:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.2</v>
+        <v>3.82</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.28</v>
+        <v>3.78</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>25/03/2023 05:56</t>
+          <t>25/03/2023 05:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.33</v>
+        <v>4.57</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.42</v>
+        <v>5.23</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>25/03/2023 05:56</t>
+          <t>25/03/2023 05:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-oita-trinita/tbCA5pth/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/vegalta-sendai-kanazawa/27D66QQo/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.49</v>
+        <v>3.04</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>25/03/2023 05:57</t>
+          <t>25/03/2023 05:52</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.18</v>
+        <v>3.49</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.28</v>
+        <v>2.69</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>25/03/2023 05:56</t>
+          <t>25/03/2023 05:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.66</v>
+        <v>5.12</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>25/03/2023 05:56</t>
+          <t>25/03/2023 05:52</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-montedio-yamagata/Wn5N2rQA/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-blaublitz/lOFI3OA4/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>1.77</v>
+        <v>3.3</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.72</v>
+        <v>3.18</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>25/03/2023 05:59</t>
+          <t>25/03/2023 05:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.82</v>
+        <v>3.2</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>25/03/2023 05:59</t>
+          <t>25/03/2023 05:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.57</v>
+        <v>2.33</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.23</v>
+        <v>2.42</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>25/03/2023 05:59</t>
+          <t>25/03/2023 05:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/vegalta-sendai-kanazawa/27D66QQo/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-oita-trinita/tbCA5pth/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.71</v>
+        <v>2.37</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>19/03/2023 06:12</t>
+          <t>19/03/2023 16:42</t>
         </is>
       </c>
       <c r="L61" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>25/03/2023 05:59</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>19/03/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>25/03/2023 05:29</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>19/03/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
         <v>3.04</v>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>25/03/2023 05:52</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>19/03/2023 06:12</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>25/03/2023 05:51</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>19/03/2023 06:12</t>
-        </is>
-      </c>
-      <c r="T61" t="n">
-        <v>3.01</v>
-      </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>25/03/2023 05:52</t>
+          <t>25/03/2023 05:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-blaublitz/lOFI3OA4/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-okayama/AXGE44eb/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.97</v>
+        <v>1.49</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>29/03/2023 11:53</t>
+          <t>29/03/2023 11:59</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,7 +6500,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.2</v>
+        <v>4.22</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.06</v>
+        <v>5.26</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>4.62</v>
+        <v>7.67</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>29/03/2023 11:53</t>
+          <t>29/03/2023 11:59</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwata-tochigi-sc/lOylJ3Ai/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-thespakusatsu-gunma/zLm6fKXj/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,48 +6576,48 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.49</v>
+        <v>1.97</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
+          <t>29/03/2023 11:53</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>26/03/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
           <t>29/03/2023 11:59</t>
         </is>
       </c>
-      <c r="N67" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="O67" t="inlineStr">
+      <c r="R67" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S67" t="inlineStr">
         <is>
           <t>26/03/2023 17:12</t>
         </is>
       </c>
-      <c r="P67" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>29/03/2023 11:59</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>26/03/2023 17:12</t>
-        </is>
-      </c>
       <c r="T67" t="n">
-        <v>7.67</v>
+        <v>4.62</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>29/03/2023 11:59</t>
+          <t>29/03/2023 11:53</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-thespakusatsu-gunma/zLm6fKXj/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwata-tochigi-sc/lOylJ3Ai/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.83</v>
+        <v>3.72</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>02/04/2023 06:56</t>
+          <t>02/04/2023 06:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.55</v>
+        <v>3.16</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.51</v>
+        <v>3.3</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>02/04/2023 06:49</t>
+          <t>02/04/2023 06:54</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.31</v>
+        <v>3.24</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.88</v>
+        <v>2.16</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>02/04/2023 06:56</t>
+          <t>02/04/2023 06:57</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-fujieda-myfc/Wrkcr70q/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-iwaki/hbw6toVe/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Mito</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>1</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Kusatsu</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>29/03/2023 12:12</t>
+          <t>26/03/2023 08:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.78</v>
+        <v>2.29</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>02/04/2023 06:58</t>
+          <t>02/04/2023 06:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>29/03/2023 12:12</t>
+          <t>26/03/2023 08:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>02/04/2023 06:51</t>
+          <t>02/04/2023 06:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.86</v>
+        <v>3.53</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>29/03/2023 12:12</t>
+          <t>26/03/2023 08:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.18</v>
+        <v>3.23</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>02/04/2023 06:58</t>
+          <t>02/04/2023 06:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-thespakusatsu-gunma/vicVnmhS/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-mito/00bRmTxM/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>26/03/2023 08:12</t>
+          <t>29/03/2023 12:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.29</v>
+        <v>2.78</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>02/04/2023 06:59</t>
+          <t>02/04/2023 06:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>26/03/2023 08:12</t>
+          <t>29/03/2023 12:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.5</v>
+        <v>2.79</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>02/04/2023 06:59</t>
+          <t>02/04/2023 06:51</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.53</v>
+        <v>3.86</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>26/03/2023 08:12</t>
+          <t>29/03/2023 12:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.23</v>
+        <v>3.18</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>02/04/2023 06:59</t>
+          <t>02/04/2023 06:58</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-mito/00bRmTxM/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-thespakusatsu-gunma/vicVnmhS/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.72</v>
+        <v>1.83</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>02/04/2023 06:59</t>
+          <t>02/04/2023 06:56</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.16</v>
+        <v>3.55</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.3</v>
+        <v>3.51</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>02/04/2023 06:54</t>
+          <t>02/04/2023 06:49</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.24</v>
+        <v>4.31</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.16</v>
+        <v>4.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>02/04/2023 06:57</t>
+          <t>02/04/2023 06:56</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-iwaki/hbw6toVe/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-fujieda-myfc/Wrkcr70q/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.21</v>
+        <v>2.17</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.57</v>
+        <v>1.75</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/04/2023 06:51</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.09</v>
+        <v>3.12</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.04</v>
+        <v>3.51</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/04/2023 06:51</t>
+          <t>08/04/2023 06:56</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.17</v>
+        <v>5.61</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/04/2023 06:51</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-tochigi-sc/AePyf4ae/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tokushima/Icpc1n7L/</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -7849,63 +7849,63 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.78</v>
+        <v>2.58</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>02/04/2023 07:12</t>
+          <t>03/04/2023 03:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.71</v>
+        <v>2.8</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>08/04/2023 06:43</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>02/04/2023 07:12</t>
+          <t>03/04/2023 03:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>08/04/2023 06:43</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>2.49</v>
+        <v>2.74</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>02/04/2023 07:12</t>
+          <t>03/04/2023 03:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>08/04/2023 06:43</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-montedio-yamagata/v7og2SiF/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-okayama/W4QXfppk/</t>
         </is>
       </c>
     </row>
@@ -7933,34 +7933,34 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>02/04/2023 07:12</t>
+          <t>03/04/2023 03:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>08/04/2023 06:58</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -7968,11 +7968,11 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>02/04/2023 07:12</t>
+          <t>03/04/2023 03:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>2.99</v>
+        <v>3.42</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,24 +7980,24 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.69</v>
+        <v>3.48</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>02/04/2023 07:12</t>
+          <t>03/04/2023 03:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.12</v>
+        <v>3.89</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>08/04/2023 06:58</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-blaublitz/CKq106MR/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-oita-trinita/K4Vi4lN2/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>1</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>V-Varen Nagasaki</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.91</v>
+        <v>2.78</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>03/04/2023 03:12</t>
+          <t>02/04/2023 07:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.26</v>
+        <v>2.71</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:43</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.03</v>
+        <v>3.35</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>03/04/2023 03:12</t>
+          <t>02/04/2023 07:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.11</v>
+        <v>3.41</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:43</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.71</v>
+        <v>2.49</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>03/04/2023 03:12</t>
+          <t>02/04/2023 07:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:43</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/thespakusatsu-gunma-v-varen-nagasaki/beUe38x9/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-montedio-yamagata/v7og2SiF/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.8</v>
+        <v>2.57</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:51</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.25</v>
+        <v>3.09</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.43</v>
+        <v>3.04</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:51</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.74</v>
+        <v>3.74</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.6</v>
+        <v>3.17</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:51</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-okayama/W4QXfppk/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-tochigi-sc/AePyf4ae/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.12</v>
+        <v>3.21</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.51</v>
+        <v>3.27</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>08/04/2023 06:56</t>
+          <t>08/04/2023 06:51</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.56</v>
+        <v>3.31</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.61</v>
+        <v>3.23</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tokushima/Icpc1n7L/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-verdy/ltyTeQUr/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.23</v>
+        <v>2.91</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.4</v>
+        <v>3.26</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>08/04/2023 06:58</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.21</v>
+        <v>3.03</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.27</v>
+        <v>3.11</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>08/04/2023 06:51</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.31</v>
+        <v>2.71</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>3.23</v>
+        <v>2.47</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>08/04/2023 06:58</t>
+          <t>08/04/2023 06:59</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-verdy/ltyTeQUr/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/thespakusatsu-gunma-v-varen-nagasaki/beUe38x9/</t>
         </is>
       </c>
     </row>
@@ -8393,34 +8393,34 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Blaublitz</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>1</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Oita Trinita</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>3</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.11</v>
+        <v>1.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>03/04/2023 03:12</t>
+          <t>02/04/2023 07:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:58</t>
         </is>
       </c>
       <c r="N87" t="n">
@@ -8428,11 +8428,11 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>03/04/2023 03:12</t>
+          <t>02/04/2023 07:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.42</v>
+        <v>2.99</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
@@ -8440,24 +8440,24 @@
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.48</v>
+        <v>4.69</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>03/04/2023 03:12</t>
+          <t>02/04/2023 07:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.89</v>
+        <v>5.12</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>08/04/2023 06:59</t>
+          <t>08/04/2023 06:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-oita-trinita/K4Vi4lN2/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-blaublitz/CKq106MR/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>08/04/2023 07:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>12/04/2023 11:55</t>
+          <t>12/04/2023 11:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>08/04/2023 07:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>12/04/2023 11:55</t>
+          <t>12/04/2023 11:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.13</v>
+        <v>4.3</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>09/04/2023 08:12</t>
+          <t>08/04/2023 07:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.88</v>
+        <v>4.97</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>12/04/2023 11:55</t>
+          <t>12/04/2023 11:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-kumamoto/IZ7I6sq1/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/oita-trinita-renofa-yamaguchi/6ep9T4jE/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>08/04/2023 07:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.77</v>
+        <v>2.08</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>12/04/2023 11:58</t>
+          <t>12/04/2023 11:55</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>08/04/2023 07:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>12/04/2023 11:58</t>
+          <t>12/04/2023 11:55</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>4.3</v>
+        <v>3.13</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>08/04/2023 07:12</t>
+          <t>09/04/2023 08:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.97</v>
+        <v>3.88</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>12/04/2023 11:58</t>
+          <t>12/04/2023 11:55</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/oita-trinita-renofa-yamaguchi/6ep9T4jE/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-kumamoto/IZ7I6sq1/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>3.21</v>
+        <v>1.93</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.45</v>
+        <v>1.86</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>12/04/2023 11:51</t>
+          <t>12/04/2023 11:56</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.05</v>
+        <v>3.82</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>12/04/2023 11:51</t>
+          <t>12/04/2023 11:56</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.53</v>
+        <v>4.28</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.41</v>
+        <v>4.21</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>12/04/2023 11:51</t>
+          <t>12/04/2023 11:52</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-montedio-yamagata/KQ6SGR68/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-vegalta-sendai/WI569qar/</t>
         </is>
       </c>
     </row>
@@ -9221,62 +9221,62 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>1.93</v>
+        <v>2.46</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>09/04/2023 01:12</t>
+          <t>08/04/2023 07:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.86</v>
+        <v>2.85</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>12/04/2023 11:56</t>
+          <t>12/04/2023 11:52</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>09/04/2023 01:12</t>
+          <t>08/04/2023 07:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>12/04/2023 11:56</t>
+          <t>12/04/2023 11:52</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.28</v>
+        <v>2.99</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>09/04/2023 01:12</t>
+          <t>08/04/2023 07:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.21</v>
+        <v>2.62</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-vegalta-sendai/WI569qar/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-kofu/vkdR4LDD/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.85</v>
+        <v>2.22</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>12/04/2023 11:52</t>
+          <t>12/04/2023 11:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.14</v>
+        <v>3.44</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.33</v>
+        <v>2.98</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>12/04/2023 11:52</t>
+          <t>12/04/2023 11:51</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.99</v>
+        <v>4.64</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.62</v>
+        <v>4.02</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>12/04/2023 11:52</t>
+          <t>12/04/2023 11:51</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-kofu/vkdR4LDD/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-blaublitz/CYOZE5yL/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Mito</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>2</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Blaublitz</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
       <c r="J99" t="n">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>08/04/2023 07:12</t>
+          <t>08/04/2023 10:12</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.22</v>
+        <v>2.69</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>12/04/2023 11:59</t>
+          <t>12/04/2023 11:53</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.44</v>
+        <v>3.07</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>08/04/2023 07:12</t>
+          <t>08/04/2023 10:12</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>2.98</v>
+        <v>3.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>12/04/2023 11:51</t>
+          <t>12/04/2023 11:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.64</v>
+        <v>3.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>08/04/2023 07:12</t>
+          <t>08/04/2023 10:12</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.02</v>
+        <v>2.85</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>12/04/2023 11:51</t>
+          <t>12/04/2023 11:53</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-blaublitz/CYOZE5yL/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-mito/0bcN51b7/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>2.33</v>
+        <v>3.21</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>08/04/2023 10:12</t>
+          <t>09/04/2023 01:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.69</v>
+        <v>3.45</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>12/04/2023 11:53</t>
+          <t>12/04/2023 11:51</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>08/04/2023 10:12</t>
+          <t>09/04/2023 01:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>12/04/2023 11:54</t>
+          <t>12/04/2023 11:51</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.35</v>
+        <v>2.53</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>08/04/2023 10:12</t>
+          <t>09/04/2023 01:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.85</v>
+        <v>2.41</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>12/04/2023 11:53</t>
+          <t>12/04/2023 11:51</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-mito/0bcN51b7/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-montedio-yamagata/KQ6SGR68/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>4.47</v>
+        <v>2.13</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>29/04/2023 07:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>5.77</v>
+        <v>1.63</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>03/05/2023 06:42</t>
+          <t>03/05/2023 06:49</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.51</v>
+        <v>3.32</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>29/04/2023 07:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>03/05/2023 06:42</t>
+          <t>03/05/2023 06:58</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>1.8</v>
+        <v>3.43</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>29/04/2023 07:13</t>
+          <t>29/04/2023 10:12</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1.62</v>
+        <v>5.83</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>03/05/2023 06:42</t>
+          <t>03/05/2023 06:58</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-shimizu-s-pulse/CItMqxb9/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-mito/j9uQrdDF/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.97</v>
+        <v>4.47</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.19</v>
+        <v>5.77</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>03/05/2023 06:57</t>
+          <t>03/05/2023 06:42</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.29</v>
+        <v>3.51</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.11</v>
+        <v>4.05</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>03/05/2023 06:57</t>
+          <t>03/05/2023 06:42</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.96</v>
+        <v>1.8</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3.92</v>
+        <v>1.62</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>03/05/2023 06:57</t>
+          <t>03/05/2023 06:42</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/vegalta-sendai-blaublitz/4CJfTGDS/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-shimizu-s-pulse/CItMqxb9/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J141" t="n">
-        <v>3.86</v>
+        <v>1.97</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 07:13</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>4.29</v>
+        <v>2.19</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>03/05/2023 06:56</t>
+          <t>03/05/2023 06:57</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 07:13</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.52</v>
+        <v>3.11</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>03/05/2023 06:56</t>
+          <t>03/05/2023 06:57</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>1.99</v>
+        <v>3.96</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>29/04/2023 08:12</t>
+          <t>29/04/2023 07:13</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>1.93</v>
+        <v>3.92</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>03/05/2023 06:56</t>
+          <t>03/05/2023 06:57</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-chiba/fsnHpIr3/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/vegalta-sendai-blaublitz/4CJfTGDS/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="n">
-        <v>2.13</v>
+        <v>3.86</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.63</v>
+        <v>4.29</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>03/05/2023 06:49</t>
+          <t>03/05/2023 06:56</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.32</v>
+        <v>3.31</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.98</v>
+        <v>3.52</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>03/05/2023 06:58</t>
+          <t>03/05/2023 06:56</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>3.43</v>
+        <v>1.99</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>29/04/2023 10:12</t>
+          <t>29/04/2023 08:12</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.83</v>
+        <v>1.93</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>03/05/2023 06:58</t>
+          <t>03/05/2023 06:56</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-mito/j9uQrdDF/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-chiba/fsnHpIr3/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>2.11</v>
+        <v>1.79</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>2.36</v>
+        <v>1.85</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.59</v>
+        <v>3.24</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>21/05/2023 06:55</t>
+          <t>21/05/2023 06:58</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>3.28</v>
+        <v>5.26</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,7 +17372,7 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>3.02</v>
+        <v>5.37</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-tokushima/ChFZF0v5/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tochigi-sc/M3MMI2fn/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.79</v>
+        <v>2.11</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,7 +17432,7 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>3.35</v>
+        <v>3.53</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,32 +17448,32 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
+          <t>21/05/2023 06:55</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
           <t>21/05/2023 06:58</t>
         </is>
       </c>
-      <c r="R185" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T185" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="U185" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:58</t>
-        </is>
-      </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tochigi-sc/M3MMI2fn/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-tokushima/ChFZF0v5/</t>
         </is>
       </c>
     </row>
@@ -38293,22 +38293,22 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G412" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -38316,15 +38316,15 @@
         </is>
       </c>
       <c r="L412" t="n">
-        <v>1.56</v>
+        <v>2.32</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="N412" t="n">
-        <v>4.08</v>
+        <v>3.48</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
@@ -38332,15 +38332,15 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>4.24</v>
+        <v>3.05</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="R412" t="n">
-        <v>5.36</v>
+        <v>3.12</v>
       </c>
       <c r="S412" t="inlineStr">
         <is>
@@ -38348,16 +38348,16 @@
         </is>
       </c>
       <c r="T412" t="n">
-        <v>6.23</v>
+        <v>3.65</v>
       </c>
       <c r="U412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-tochigi-sc/hdQZvc5B/</t>
         </is>
       </c>
     </row>
@@ -38385,22 +38385,22 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G413" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I413" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J413" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -38408,48 +38408,48 @@
         </is>
       </c>
       <c r="L413" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:52</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="N413" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
         <v>3.66</v>
       </c>
-      <c r="O413" t="inlineStr">
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:53</t>
+        </is>
+      </c>
+      <c r="R413" t="n">
+        <v>5</v>
+      </c>
+      <c r="S413" t="inlineStr">
         <is>
           <t>01/10/2023 06:13</t>
         </is>
       </c>
-      <c r="P413" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q413" t="inlineStr">
-        <is>
-          <t>08/10/2023 06:52</t>
-        </is>
-      </c>
-      <c r="R413" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="S413" t="inlineStr">
-        <is>
-          <t>01/10/2023 06:13</t>
-        </is>
-      </c>
       <c r="T413" t="n">
-        <v>4.26</v>
+        <v>4.42</v>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:52</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="V413" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-vegalta-sendai/WnPwvHKH/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kofu/4zfhcvLu/</t>
         </is>
       </c>
     </row>
@@ -38569,22 +38569,22 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J415" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -38592,15 +38592,15 @@
         </is>
       </c>
       <c r="L415" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="N415" t="n">
-        <v>3.91</v>
+        <v>3.66</v>
       </c>
       <c r="O415" t="inlineStr">
         <is>
@@ -38608,15 +38608,15 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="Q415" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="R415" t="n">
-        <v>5</v>
+        <v>3.68</v>
       </c>
       <c r="S415" t="inlineStr">
         <is>
@@ -38624,16 +38624,16 @@
         </is>
       </c>
       <c r="T415" t="n">
-        <v>4.42</v>
+        <v>4.26</v>
       </c>
       <c r="U415" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="V415" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kofu/4zfhcvLu/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-vegalta-sendai/WnPwvHKH/</t>
         </is>
       </c>
     </row>
@@ -38661,22 +38661,22 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J416" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -38684,15 +38684,15 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>2.32</v>
+        <v>1.56</v>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="N416" t="n">
-        <v>3.48</v>
+        <v>4.08</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
@@ -38700,15 +38700,15 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3.05</v>
+        <v>4.24</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="R416" t="n">
-        <v>3.12</v>
+        <v>5.36</v>
       </c>
       <c r="S416" t="inlineStr">
         <is>
@@ -38716,16 +38716,16 @@
         </is>
       </c>
       <c r="T416" t="n">
-        <v>3.65</v>
+        <v>6.23</v>
       </c>
       <c r="U416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="V416" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-tochigi-sc/hdQZvc5B/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
         </is>
       </c>
     </row>
@@ -39397,22 +39397,22 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J424" t="n">
-        <v>2.43</v>
+        <v>2.41</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -39420,15 +39420,15 @@
         </is>
       </c>
       <c r="L424" t="n">
-        <v>2.51</v>
+        <v>2.96</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>3.07</v>
+        <v>3.24</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
@@ -39436,15 +39436,15 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2.98</v>
+        <v>3.23</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:48</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>3.09</v>
+        <v>2.97</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
@@ -39452,16 +39452,16 @@
         </is>
       </c>
       <c r="T424" t="n">
-        <v>3.35</v>
+        <v>2.59</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:51</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-vegalta-sendai/Q9pDhGZA/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-chiba/GbwQkEJT/</t>
         </is>
       </c>
     </row>
@@ -39489,71 +39489,71 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="I425" t="n">
         <v>3</v>
       </c>
       <c r="J425" t="n">
-        <v>2.19</v>
+        <v>4.15</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>2.53</v>
+        <v>6.4</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
+          <t>22/10/2023 06:54</t>
+        </is>
+      </c>
+      <c r="N425" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O425" t="inlineStr">
+        <is>
+          <t>14/10/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P425" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q425" t="inlineStr">
+        <is>
           <t>22/10/2023 06:58</t>
         </is>
       </c>
-      <c r="N425" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="O425" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:12</t>
-        </is>
-      </c>
-      <c r="P425" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q425" t="inlineStr">
-        <is>
-          <t>22/10/2023 06:16</t>
-        </is>
-      </c>
       <c r="R425" t="n">
-        <v>3.08</v>
+        <v>1.78</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="T425" t="n">
-        <v>2.74</v>
+        <v>1.53</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:40</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-omiya-ardija/fP8zAH4o/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-iwata/Sx7r8eZc/</t>
         </is>
       </c>
     </row>
@@ -39581,22 +39581,22 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="I426" t="n">
         <v>1</v>
       </c>
       <c r="J426" t="n">
-        <v>2.68</v>
+        <v>2.87</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -39604,15 +39604,15 @@
         </is>
       </c>
       <c r="L426" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>3.39</v>
+        <v>3.08</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
@@ -39620,15 +39620,15 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3.7</v>
+        <v>3.01</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>2.66</v>
+        <v>2.59</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
@@ -39636,16 +39636,16 @@
         </is>
       </c>
       <c r="T426" t="n">
-        <v>2.38</v>
+        <v>2.67</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:31</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-montedio-yamagata/I7PioYRp/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-oita-trinita/MyvMjf4N/</t>
         </is>
       </c>
     </row>
@@ -39673,71 +39673,71 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G427" t="n">
+        <v>0</v>
+      </c>
+      <c r="H427" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I427" t="n">
         <v>1</v>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>Kusatsu</t>
-        </is>
-      </c>
-      <c r="I427" t="n">
-        <v>2</v>
-      </c>
       <c r="J427" t="n">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="L427" t="n">
-        <v>2.02</v>
+        <v>2.51</v>
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="N427" t="n">
-        <v>3.51</v>
+        <v>3.07</v>
       </c>
       <c r="O427" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="P427" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="R427" t="n">
-        <v>3.61</v>
+        <v>3.09</v>
       </c>
       <c r="S427" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="T427" t="n">
-        <v>4.22</v>
+        <v>3.35</v>
       </c>
       <c r="U427" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="V427" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/mito-thespakusatsu-gunma/8YZHizkH/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-vegalta-sendai/Q9pDhGZA/</t>
         </is>
       </c>
     </row>
@@ -39765,22 +39765,22 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I428" t="n">
         <v>1</v>
       </c>
       <c r="J428" t="n">
-        <v>2.87</v>
+        <v>2.68</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -39788,15 +39788,15 @@
         </is>
       </c>
       <c r="L428" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="N428" t="n">
-        <v>3.08</v>
+        <v>3.39</v>
       </c>
       <c r="O428" t="inlineStr">
         <is>
@@ -39804,15 +39804,15 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>3.01</v>
+        <v>3.7</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="R428" t="n">
-        <v>2.59</v>
+        <v>2.66</v>
       </c>
       <c r="S428" t="inlineStr">
         <is>
@@ -39820,16 +39820,16 @@
         </is>
       </c>
       <c r="T428" t="n">
-        <v>2.67</v>
+        <v>2.38</v>
       </c>
       <c r="U428" t="inlineStr">
         <is>
-          <t>22/10/2023 06:31</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="V428" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-oita-trinita/MyvMjf4N/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-montedio-yamagata/I7PioYRp/</t>
         </is>
       </c>
     </row>
@@ -39857,71 +39857,71 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="I429" t="n">
         <v>3</v>
       </c>
       <c r="J429" t="n">
-        <v>4.15</v>
+        <v>2.19</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="L429" t="n">
-        <v>6.4</v>
+        <v>2.53</v>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>22/10/2023 06:54</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="N429" t="n">
-        <v>3.82</v>
+        <v>3.56</v>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>4.38</v>
+        <v>3.65</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
+          <t>22/10/2023 06:16</t>
+        </is>
+      </c>
+      <c r="R429" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S429" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T429" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U429" t="inlineStr">
+        <is>
           <t>22/10/2023 06:58</t>
         </is>
       </c>
-      <c r="R429" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S429" t="inlineStr">
-        <is>
-          <t>14/10/2023 06:42</t>
-        </is>
-      </c>
-      <c r="T429" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U429" t="inlineStr">
-        <is>
-          <t>22/10/2023 06:40</t>
-        </is>
-      </c>
       <c r="V429" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-iwata/Sx7r8eZc/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-omiya-ardija/fP8zAH4o/</t>
         </is>
       </c>
     </row>
@@ -39949,71 +39949,71 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G430" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="I430" t="n">
         <v>2</v>
       </c>
       <c r="J430" t="n">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="L430" t="n">
-        <v>2.96</v>
+        <v>2.02</v>
       </c>
       <c r="M430" t="inlineStr">
         <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="N430" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O430" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P430" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q430" t="inlineStr">
+        <is>
+          <t>22/10/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R430" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T430" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U430" t="inlineStr">
+        <is>
           <t>22/10/2023 06:56</t>
         </is>
       </c>
-      <c r="N430" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O430" t="inlineStr">
-        <is>
-          <t>14/10/2023 06:42</t>
-        </is>
-      </c>
-      <c r="P430" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q430" t="inlineStr">
-        <is>
-          <t>22/10/2023 06:48</t>
-        </is>
-      </c>
-      <c r="R430" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="S430" t="inlineStr">
-        <is>
-          <t>14/10/2023 06:42</t>
-        </is>
-      </c>
-      <c r="T430" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="U430" t="inlineStr">
-        <is>
-          <t>22/10/2023 06:51</t>
-        </is>
-      </c>
       <c r="V430" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-chiba/GbwQkEJT/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/mito-thespakusatsu-gunma/8YZHizkH/</t>
         </is>
       </c>
     </row>
@@ -40133,7 +40133,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="G432" t="n">
@@ -40141,26 +40141,26 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="I432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J432" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>22/10/2023 07:12</t>
+          <t>22/10/2023 07:13</t>
         </is>
       </c>
       <c r="L432" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>28/10/2023 06:16</t>
+          <t>28/10/2023 06:33</t>
         </is>
       </c>
       <c r="N432" t="n">
@@ -40168,36 +40168,36 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>22/10/2023 07:12</t>
+          <t>22/10/2023 07:13</t>
         </is>
       </c>
       <c r="P432" t="n">
-        <v>3.57</v>
+        <v>3.98</v>
       </c>
       <c r="Q432" t="inlineStr">
         <is>
-          <t>28/10/2023 06:16</t>
+          <t>28/10/2023 06:33</t>
         </is>
       </c>
       <c r="R432" t="n">
-        <v>3.81</v>
+        <v>4.19</v>
       </c>
       <c r="S432" t="inlineStr">
         <is>
-          <t>22/10/2023 07:12</t>
+          <t>22/10/2023 07:13</t>
         </is>
       </c>
       <c r="T432" t="n">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="U432" t="inlineStr">
         <is>
-          <t>28/10/2023 06:44</t>
+          <t>28/10/2023 06:33</t>
         </is>
       </c>
       <c r="V432" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwata-verdy/0Sbe5gJG/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-tokushima/8h233XmT/</t>
         </is>
       </c>
     </row>
@@ -40317,7 +40317,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="G434" t="n">
@@ -40325,26 +40325,26 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="I434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J434" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>22/10/2023 07:13</t>
+          <t>22/10/2023 07:12</t>
         </is>
       </c>
       <c r="L434" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>28/10/2023 06:33</t>
+          <t>28/10/2023 06:16</t>
         </is>
       </c>
       <c r="N434" t="n">
@@ -40352,36 +40352,36 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>22/10/2023 07:13</t>
+          <t>22/10/2023 07:12</t>
         </is>
       </c>
       <c r="P434" t="n">
-        <v>3.98</v>
+        <v>3.57</v>
       </c>
       <c r="Q434" t="inlineStr">
         <is>
-          <t>28/10/2023 06:33</t>
+          <t>28/10/2023 06:16</t>
         </is>
       </c>
       <c r="R434" t="n">
-        <v>4.19</v>
+        <v>3.81</v>
       </c>
       <c r="S434" t="inlineStr">
         <is>
-          <t>22/10/2023 07:13</t>
+          <t>22/10/2023 07:12</t>
         </is>
       </c>
       <c r="T434" t="n">
-        <v>4.2</v>
+        <v>3.48</v>
       </c>
       <c r="U434" t="inlineStr">
         <is>
-          <t>28/10/2023 06:33</t>
+          <t>28/10/2023 06:44</t>
         </is>
       </c>
       <c r="V434" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-tokushima/8h233XmT/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwata-verdy/0Sbe5gJG/</t>
         </is>
       </c>
     </row>
@@ -40593,7 +40593,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G437" t="n">
@@ -40601,14 +40601,14 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="I437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J437" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -40616,7 +40616,7 @@
         </is>
       </c>
       <c r="L437" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="M437" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         </is>
       </c>
       <c r="N437" t="n">
-        <v>3.2</v>
+        <v>3.66</v>
       </c>
       <c r="O437" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>3.28</v>
+        <v>3.83</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -40640,7 +40640,7 @@
         </is>
       </c>
       <c r="R437" t="n">
-        <v>3.94</v>
+        <v>4.1</v>
       </c>
       <c r="S437" t="inlineStr">
         <is>
@@ -40648,16 +40648,16 @@
         </is>
       </c>
       <c r="T437" t="n">
-        <v>4.64</v>
+        <v>4.11</v>
       </c>
       <c r="U437" t="inlineStr">
         <is>
-          <t>29/10/2023 05:57</t>
+          <t>29/10/2023 05:56</t>
         </is>
       </c>
       <c r="V437" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-tochigi-sc/ng2IKYI3/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-iwaki/ttXHMfli/</t>
         </is>
       </c>
     </row>
@@ -40685,22 +40685,22 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G438" t="n">
+        <v>1</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Kanazawa</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>Kofu</t>
-        </is>
-      </c>
-      <c r="I438" t="n">
-        <v>2</v>
-      </c>
       <c r="J438" t="n">
-        <v>2.57</v>
+        <v>1.63</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -40708,15 +40708,15 @@
         </is>
       </c>
       <c r="L438" t="n">
-        <v>2.73</v>
+        <v>1.55</v>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>29/10/2023 05:56</t>
+          <t>29/10/2023 05:57</t>
         </is>
       </c>
       <c r="N438" t="n">
-        <v>3.46</v>
+        <v>4.06</v>
       </c>
       <c r="O438" t="inlineStr">
         <is>
@@ -40724,15 +40724,15 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>3.53</v>
+        <v>4.49</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>29/10/2023 05:56</t>
+          <t>29/10/2023 05:57</t>
         </is>
       </c>
       <c r="R438" t="n">
-        <v>2.74</v>
+        <v>5.34</v>
       </c>
       <c r="S438" t="inlineStr">
         <is>
@@ -40740,16 +40740,16 @@
         </is>
       </c>
       <c r="T438" t="n">
-        <v>2.61</v>
+        <v>5.91</v>
       </c>
       <c r="U438" t="inlineStr">
         <is>
-          <t>29/10/2023 05:50</t>
+          <t>29/10/2023 05:57</t>
         </is>
       </c>
       <c r="V438" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-kofu/SxqzbBBj/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kanazawa/KWVLLE3c/</t>
         </is>
       </c>
     </row>
@@ -40869,7 +40869,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G440" t="n">
@@ -40877,14 +40877,14 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J440" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -40892,48 +40892,48 @@
         </is>
       </c>
       <c r="L440" t="n">
-        <v>1.55</v>
+        <v>1.94</v>
       </c>
       <c r="M440" t="inlineStr">
         <is>
+          <t>29/10/2023 05:56</t>
+        </is>
+      </c>
+      <c r="N440" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P440" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q440" t="inlineStr">
+        <is>
+          <t>29/10/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R440" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S440" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T440" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U440" t="inlineStr">
+        <is>
           <t>29/10/2023 05:57</t>
         </is>
       </c>
-      <c r="N440" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="O440" t="inlineStr">
-        <is>
-          <t>22/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="P440" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="Q440" t="inlineStr">
-        <is>
-          <t>29/10/2023 05:57</t>
-        </is>
-      </c>
-      <c r="R440" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="S440" t="inlineStr">
-        <is>
-          <t>22/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="T440" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="U440" t="inlineStr">
-        <is>
-          <t>29/10/2023 05:57</t>
-        </is>
-      </c>
       <c r="V440" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kanazawa/KWVLLE3c/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-tochigi-sc/ng2IKYI3/</t>
         </is>
       </c>
     </row>
@@ -40961,71 +40961,163 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="G441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I441" t="n">
+        <v>2</v>
+      </c>
+      <c r="J441" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L441" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M441" t="inlineStr">
+        <is>
+          <t>29/10/2023 05:56</t>
+        </is>
+      </c>
+      <c r="N441" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P441" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q441" t="inlineStr">
+        <is>
+          <t>29/10/2023 05:56</t>
+        </is>
+      </c>
+      <c r="R441" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S441" t="inlineStr">
+        <is>
+          <t>22/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T441" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U441" t="inlineStr">
+        <is>
+          <t>29/10/2023 05:50</t>
+        </is>
+      </c>
+      <c r="V441" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-kofu/SxqzbBBj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E442" s="2" t="n">
+        <v>45233.21180555555</v>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>Kofu</t>
+        </is>
+      </c>
+      <c r="G442" t="n">
+        <v>2</v>
+      </c>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>Kumamoto</t>
+        </is>
+      </c>
+      <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>22/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M441" t="inlineStr">
-        <is>
-          <t>29/10/2023 05:56</t>
-        </is>
-      </c>
-      <c r="N441" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O441" t="inlineStr">
-        <is>
-          <t>22/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="P441" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="Q441" t="inlineStr">
-        <is>
-          <t>29/10/2023 05:56</t>
-        </is>
-      </c>
-      <c r="R441" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="S441" t="inlineStr">
-        <is>
-          <t>22/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="T441" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U441" t="inlineStr">
-        <is>
-          <t>29/10/2023 05:56</t>
-        </is>
-      </c>
-      <c r="V441" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-iwaki/ttXHMfli/</t>
+      <c r="J442" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L442" t="n">
+        <v>2</v>
+      </c>
+      <c r="M442" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:04</t>
+        </is>
+      </c>
+      <c r="N442" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P442" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q442" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:04</t>
+        </is>
+      </c>
+      <c r="R442" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S442" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T442" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U442" t="inlineStr">
+        <is>
+          <t>03/11/2023 05:04</t>
+        </is>
+      </c>
+      <c r="V442" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kofu-kumamoto/Y94UHW2M/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V442"/>
+  <dimension ref="A1:V448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17133,22 +17133,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="n">
-        <v>3.27</v>
+        <v>1.79</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,39 +17156,39 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>3.95</v>
+        <v>1.85</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>21/05/2023 06:59</t>
+          <t>21/05/2023 06:58</t>
         </is>
       </c>
       <c r="N182" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
         <v>3.24</v>
       </c>
-      <c r="O182" t="inlineStr">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>21/05/2023 06:58</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="S182" t="inlineStr">
         <is>
           <t>17/05/2023 12:12</t>
         </is>
       </c>
-      <c r="P182" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:59</t>
-        </is>
-      </c>
-      <c r="R182" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
       <c r="T182" t="n">
-        <v>2.03</v>
+        <v>5.37</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-shimizu-s-pulse/4SBRHM9h/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tochigi-sc/M3MMI2fn/</t>
         </is>
       </c>
     </row>
@@ -17317,22 +17317,22 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>1.79</v>
+        <v>2.11</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,7 +17340,7 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         </is>
       </c>
       <c r="N184" t="n">
-        <v>3.35</v>
+        <v>3.53</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,32 +17356,32 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>3.24</v>
+        <v>3.59</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
+          <t>21/05/2023 06:55</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
           <t>21/05/2023 06:58</t>
         </is>
       </c>
-      <c r="R184" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S184" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T184" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:58</t>
-        </is>
-      </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tochigi-sc/M3MMI2fn/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-tokushima/ChFZF0v5/</t>
         </is>
       </c>
     </row>
@@ -17409,22 +17409,22 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>2.11</v>
+        <v>3.27</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,48 +17432,48 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>2.36</v>
+        <v>3.95</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
+          <t>21/05/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>21/05/2023 06:59</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
           <t>21/05/2023 06:58</t>
         </is>
       </c>
-      <c r="N185" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P185" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:55</t>
-        </is>
-      </c>
-      <c r="R185" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T185" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="U185" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:58</t>
-        </is>
-      </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-tokushima/ChFZF0v5/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-shimizu-s-pulse/4SBRHM9h/</t>
         </is>
       </c>
     </row>
@@ -38477,22 +38477,22 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J414" t="n">
-        <v>2.49</v>
+        <v>1.57</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -38500,15 +38500,15 @@
         </is>
       </c>
       <c r="L414" t="n">
-        <v>2.73</v>
+        <v>1.56</v>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="N414" t="n">
-        <v>3.2</v>
+        <v>4.08</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
@@ -38516,15 +38516,15 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3.09</v>
+        <v>4.24</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="R414" t="n">
-        <v>3.05</v>
+        <v>5.36</v>
       </c>
       <c r="S414" t="inlineStr">
         <is>
@@ -38532,16 +38532,16 @@
         </is>
       </c>
       <c r="T414" t="n">
-        <v>2.92</v>
+        <v>6.23</v>
       </c>
       <c r="U414" t="inlineStr">
         <is>
-          <t>08/10/2023 06:56</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="V414" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-blaublitz/Iwbddbzn/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
         </is>
       </c>
     </row>
@@ -38661,22 +38661,22 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I416" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J416" t="n">
-        <v>1.57</v>
+        <v>2.49</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -38684,15 +38684,15 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>1.56</v>
+        <v>2.73</v>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="N416" t="n">
-        <v>4.08</v>
+        <v>3.2</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
@@ -38700,15 +38700,15 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="R416" t="n">
-        <v>5.36</v>
+        <v>3.05</v>
       </c>
       <c r="S416" t="inlineStr">
         <is>
@@ -38716,16 +38716,16 @@
         </is>
       </c>
       <c r="T416" t="n">
-        <v>6.23</v>
+        <v>2.92</v>
       </c>
       <c r="U416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:56</t>
         </is>
       </c>
       <c r="V416" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-blaublitz/Iwbddbzn/</t>
         </is>
       </c>
     </row>
@@ -39397,22 +39397,22 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Verdy</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J424" t="n">
-        <v>2.41</v>
+        <v>2.68</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -39420,7 +39420,7 @@
         </is>
       </c>
       <c r="L424" t="n">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
@@ -39428,7 +39428,7 @@
         </is>
       </c>
       <c r="N424" t="n">
-        <v>3.24</v>
+        <v>3.39</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
@@ -39436,15 +39436,15 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3.23</v>
+        <v>3.7</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:48</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>2.97</v>
+        <v>2.66</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
@@ -39452,16 +39452,16 @@
         </is>
       </c>
       <c r="T424" t="n">
-        <v>2.59</v>
+        <v>2.38</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:51</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-chiba/GbwQkEJT/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-montedio-yamagata/I7PioYRp/</t>
         </is>
       </c>
     </row>
@@ -39489,46 +39489,46 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="I425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J425" t="n">
-        <v>4.15</v>
+        <v>2</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>6.4</v>
+        <v>2.02</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>22/10/2023 06:54</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="N425" t="n">
-        <v>3.82</v>
+        <v>3.51</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>4.38</v>
+        <v>3.32</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
@@ -39536,24 +39536,24 @@
         </is>
       </c>
       <c r="R425" t="n">
-        <v>1.78</v>
+        <v>3.61</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="T425" t="n">
-        <v>1.53</v>
+        <v>4.22</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
-          <t>22/10/2023 06:40</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-iwata/Sx7r8eZc/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/mito-thespakusatsu-gunma/8YZHizkH/</t>
         </is>
       </c>
     </row>
@@ -39581,22 +39581,22 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I426" t="n">
         <v>1</v>
       </c>
       <c r="J426" t="n">
-        <v>2.87</v>
+        <v>2.43</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -39604,15 +39604,15 @@
         </is>
       </c>
       <c r="L426" t="n">
-        <v>3.06</v>
+        <v>2.51</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>3.08</v>
+        <v>3.07</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
@@ -39620,15 +39620,15 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>3.01</v>
+        <v>2.98</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>2.59</v>
+        <v>3.09</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
@@ -39636,16 +39636,16 @@
         </is>
       </c>
       <c r="T426" t="n">
-        <v>2.67</v>
+        <v>3.35</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:31</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-oita-trinita/MyvMjf4N/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-vegalta-sendai/Q9pDhGZA/</t>
         </is>
       </c>
     </row>
@@ -39673,22 +39673,22 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="G427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="I427" t="n">
         <v>1</v>
       </c>
       <c r="J427" t="n">
-        <v>2.43</v>
+        <v>2.87</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -39696,15 +39696,15 @@
         </is>
       </c>
       <c r="L427" t="n">
-        <v>2.51</v>
+        <v>3.06</v>
       </c>
       <c r="M427" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="N427" t="n">
-        <v>3.07</v>
+        <v>3.08</v>
       </c>
       <c r="O427" t="inlineStr">
         <is>
@@ -39712,15 +39712,15 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2.98</v>
+        <v>3.01</v>
       </c>
       <c r="Q427" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="R427" t="n">
-        <v>3.09</v>
+        <v>2.59</v>
       </c>
       <c r="S427" t="inlineStr">
         <is>
@@ -39728,16 +39728,16 @@
         </is>
       </c>
       <c r="T427" t="n">
-        <v>3.35</v>
+        <v>2.67</v>
       </c>
       <c r="U427" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:31</t>
         </is>
       </c>
       <c r="V427" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-vegalta-sendai/Q9pDhGZA/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tochigi-sc-oita-trinita/MyvMjf4N/</t>
         </is>
       </c>
     </row>
@@ -39765,7 +39765,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G428" t="n">
@@ -39773,14 +39773,14 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="I428" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J428" t="n">
-        <v>2.68</v>
+        <v>4.15</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -39788,15 +39788,15 @@
         </is>
       </c>
       <c r="L428" t="n">
-        <v>2.91</v>
+        <v>6.4</v>
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:54</t>
         </is>
       </c>
       <c r="N428" t="n">
-        <v>3.39</v>
+        <v>3.82</v>
       </c>
       <c r="O428" t="inlineStr">
         <is>
@@ -39804,15 +39804,15 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>3.7</v>
+        <v>4.38</v>
       </c>
       <c r="Q428" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="R428" t="n">
-        <v>2.66</v>
+        <v>1.78</v>
       </c>
       <c r="S428" t="inlineStr">
         <is>
@@ -39820,16 +39820,16 @@
         </is>
       </c>
       <c r="T428" t="n">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="U428" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:40</t>
         </is>
       </c>
       <c r="V428" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-montedio-yamagata/I7PioYRp/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-iwata/Sx7r8eZc/</t>
         </is>
       </c>
     </row>
@@ -39857,71 +39857,71 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Verdy</t>
         </is>
       </c>
       <c r="G429" t="n">
+        <v>3</v>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="I429" t="n">
         <v>2</v>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>Omiya Ardija</t>
-        </is>
-      </c>
-      <c r="I429" t="n">
-        <v>3</v>
-      </c>
       <c r="J429" t="n">
-        <v>2.19</v>
+        <v>2.41</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="L429" t="n">
-        <v>2.53</v>
+        <v>2.96</v>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="N429" t="n">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="P429" t="n">
-        <v>3.65</v>
+        <v>3.23</v>
       </c>
       <c r="Q429" t="inlineStr">
         <is>
-          <t>22/10/2023 06:16</t>
+          <t>22/10/2023 06:48</t>
         </is>
       </c>
       <c r="R429" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="S429" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="T429" t="n">
-        <v>2.74</v>
+        <v>2.59</v>
       </c>
       <c r="U429" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:51</t>
         </is>
       </c>
       <c r="V429" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-omiya-ardija/fP8zAH4o/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-chiba/GbwQkEJT/</t>
         </is>
       </c>
     </row>
@@ -39949,22 +39949,22 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G430" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="I430" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J430" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -39972,7 +39972,7 @@
         </is>
       </c>
       <c r="L430" t="n">
-        <v>2.02</v>
+        <v>2.53</v>
       </c>
       <c r="M430" t="inlineStr">
         <is>
@@ -39980,7 +39980,7 @@
         </is>
       </c>
       <c r="N430" t="n">
-        <v>3.51</v>
+        <v>3.56</v>
       </c>
       <c r="O430" t="inlineStr">
         <is>
@@ -39988,32 +39988,32 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>3.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
+          <t>22/10/2023 06:16</t>
+        </is>
+      </c>
+      <c r="R430" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S430" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T430" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U430" t="inlineStr">
+        <is>
           <t>22/10/2023 06:58</t>
         </is>
       </c>
-      <c r="R430" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="S430" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:12</t>
-        </is>
-      </c>
-      <c r="T430" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="U430" t="inlineStr">
-        <is>
-          <t>22/10/2023 06:56</t>
-        </is>
-      </c>
       <c r="V430" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/mito-thespakusatsu-gunma/8YZHizkH/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-omiya-ardija/fP8zAH4o/</t>
         </is>
       </c>
     </row>
@@ -40225,7 +40225,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="G433" t="n">
@@ -40233,14 +40233,14 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="I433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J433" t="n">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -40248,15 +40248,15 @@
         </is>
       </c>
       <c r="L433" t="n">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>28/10/2023 06:58</t>
+          <t>28/10/2023 06:59</t>
         </is>
       </c>
       <c r="N433" t="n">
-        <v>3.66</v>
+        <v>3.63</v>
       </c>
       <c r="O433" t="inlineStr">
         <is>
@@ -40264,15 +40264,15 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="Q433" t="inlineStr">
         <is>
-          <t>28/10/2023 06:57</t>
+          <t>28/10/2023 06:59</t>
         </is>
       </c>
       <c r="R433" t="n">
-        <v>2.72</v>
+        <v>3.92</v>
       </c>
       <c r="S433" t="inlineStr">
         <is>
@@ -40280,16 +40280,16 @@
         </is>
       </c>
       <c r="T433" t="n">
-        <v>2.63</v>
+        <v>3.63</v>
       </c>
       <c r="U433" t="inlineStr">
         <is>
-          <t>28/10/2023 06:58</t>
+          <t>28/10/2023 06:51</t>
         </is>
       </c>
       <c r="V433" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-mito/U13a4DYM/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/vegalta-sendai-renofa-yamaguchi/K60QICmG/</t>
         </is>
       </c>
     </row>
@@ -40409,7 +40409,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G435" t="n">
@@ -40417,14 +40417,14 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J435" t="n">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -40432,15 +40432,15 @@
         </is>
       </c>
       <c r="L435" t="n">
-        <v>2.1</v>
+        <v>2.67</v>
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>28/10/2023 06:59</t>
+          <t>28/10/2023 06:58</t>
         </is>
       </c>
       <c r="N435" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="O435" t="inlineStr">
         <is>
@@ -40448,15 +40448,15 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="Q435" t="inlineStr">
         <is>
-          <t>28/10/2023 06:59</t>
+          <t>28/10/2023 06:57</t>
         </is>
       </c>
       <c r="R435" t="n">
-        <v>3.92</v>
+        <v>2.72</v>
       </c>
       <c r="S435" t="inlineStr">
         <is>
@@ -40464,16 +40464,16 @@
         </is>
       </c>
       <c r="T435" t="n">
-        <v>3.63</v>
+        <v>2.63</v>
       </c>
       <c r="U435" t="inlineStr">
         <is>
-          <t>28/10/2023 06:51</t>
+          <t>28/10/2023 06:58</t>
         </is>
       </c>
       <c r="V435" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/vegalta-sendai-renofa-yamaguchi/K60QICmG/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-mito/U13a4DYM/</t>
         </is>
       </c>
     </row>
@@ -40593,22 +40593,22 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="G437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J437" t="n">
-        <v>1.89</v>
+        <v>2.57</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -40616,7 +40616,7 @@
         </is>
       </c>
       <c r="L437" t="n">
-        <v>1.88</v>
+        <v>2.73</v>
       </c>
       <c r="M437" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         </is>
       </c>
       <c r="N437" t="n">
-        <v>3.66</v>
+        <v>3.46</v>
       </c>
       <c r="O437" t="inlineStr">
         <is>
@@ -40632,7 +40632,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>3.83</v>
+        <v>3.53</v>
       </c>
       <c r="Q437" t="inlineStr">
         <is>
@@ -40640,7 +40640,7 @@
         </is>
       </c>
       <c r="R437" t="n">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="S437" t="inlineStr">
         <is>
@@ -40648,16 +40648,16 @@
         </is>
       </c>
       <c r="T437" t="n">
-        <v>4.11</v>
+        <v>2.61</v>
       </c>
       <c r="U437" t="inlineStr">
         <is>
-          <t>29/10/2023 05:56</t>
+          <t>29/10/2023 05:50</t>
         </is>
       </c>
       <c r="V437" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-iwaki/ttXHMfli/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-kofu/SxqzbBBj/</t>
         </is>
       </c>
     </row>
@@ -40685,22 +40685,22 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G438" t="n">
+        <v>2</v>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>Kusatsu</t>
+        </is>
+      </c>
+      <c r="I438" t="n">
         <v>1</v>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>Kanazawa</t>
-        </is>
-      </c>
-      <c r="I438" t="n">
-        <v>0</v>
-      </c>
       <c r="J438" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -40708,15 +40708,15 @@
         </is>
       </c>
       <c r="L438" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>29/10/2023 05:57</t>
+          <t>29/10/2023 05:36</t>
         </is>
       </c>
       <c r="N438" t="n">
-        <v>4.06</v>
+        <v>3.85</v>
       </c>
       <c r="O438" t="inlineStr">
         <is>
@@ -40724,15 +40724,15 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>4.49</v>
+        <v>3.76</v>
       </c>
       <c r="Q438" t="inlineStr">
         <is>
-          <t>29/10/2023 05:57</t>
+          <t>29/10/2023 05:36</t>
         </is>
       </c>
       <c r="R438" t="n">
-        <v>5.34</v>
+        <v>4.33</v>
       </c>
       <c r="S438" t="inlineStr">
         <is>
@@ -40740,16 +40740,16 @@
         </is>
       </c>
       <c r="T438" t="n">
-        <v>5.91</v>
+        <v>4.89</v>
       </c>
       <c r="U438" t="inlineStr">
         <is>
-          <t>29/10/2023 05:57</t>
+          <t>29/10/2023 05:25</t>
         </is>
       </c>
       <c r="V438" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kanazawa/KWVLLE3c/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-thespakusatsu-gunma/EZvWbidp/</t>
         </is>
       </c>
     </row>
@@ -40777,22 +40777,22 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Kusatsu</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="I439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J439" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -40800,15 +40800,15 @@
         </is>
       </c>
       <c r="L439" t="n">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>29/10/2023 05:36</t>
+          <t>29/10/2023 05:57</t>
         </is>
       </c>
       <c r="N439" t="n">
-        <v>3.85</v>
+        <v>4.06</v>
       </c>
       <c r="O439" t="inlineStr">
         <is>
@@ -40816,15 +40816,15 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>3.76</v>
+        <v>4.49</v>
       </c>
       <c r="Q439" t="inlineStr">
         <is>
-          <t>29/10/2023 05:36</t>
+          <t>29/10/2023 05:57</t>
         </is>
       </c>
       <c r="R439" t="n">
-        <v>4.33</v>
+        <v>5.34</v>
       </c>
       <c r="S439" t="inlineStr">
         <is>
@@ -40832,16 +40832,16 @@
         </is>
       </c>
       <c r="T439" t="n">
-        <v>4.89</v>
+        <v>5.91</v>
       </c>
       <c r="U439" t="inlineStr">
         <is>
-          <t>29/10/2023 05:25</t>
+          <t>29/10/2023 05:57</t>
         </is>
       </c>
       <c r="V439" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-thespakusatsu-gunma/EZvWbidp/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kanazawa/KWVLLE3c/</t>
         </is>
       </c>
     </row>
@@ -40869,7 +40869,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>Okayama</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G440" t="n">
@@ -40877,14 +40877,14 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="I440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J440" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -40892,7 +40892,7 @@
         </is>
       </c>
       <c r="L440" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="M440" t="inlineStr">
         <is>
@@ -40900,7 +40900,7 @@
         </is>
       </c>
       <c r="N440" t="n">
-        <v>3.2</v>
+        <v>3.66</v>
       </c>
       <c r="O440" t="inlineStr">
         <is>
@@ -40908,7 +40908,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>3.28</v>
+        <v>3.83</v>
       </c>
       <c r="Q440" t="inlineStr">
         <is>
@@ -40916,7 +40916,7 @@
         </is>
       </c>
       <c r="R440" t="n">
-        <v>3.94</v>
+        <v>4.1</v>
       </c>
       <c r="S440" t="inlineStr">
         <is>
@@ -40924,16 +40924,16 @@
         </is>
       </c>
       <c r="T440" t="n">
-        <v>4.64</v>
+        <v>4.11</v>
       </c>
       <c r="U440" t="inlineStr">
         <is>
-          <t>29/10/2023 05:57</t>
+          <t>29/10/2023 05:56</t>
         </is>
       </c>
       <c r="V440" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-tochigi-sc/ng2IKYI3/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-iwaki/ttXHMfli/</t>
         </is>
       </c>
     </row>
@@ -40961,22 +40961,22 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Okayama</t>
         </is>
       </c>
       <c r="G441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J441" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -40984,7 +40984,7 @@
         </is>
       </c>
       <c r="L441" t="n">
-        <v>2.73</v>
+        <v>1.94</v>
       </c>
       <c r="M441" t="inlineStr">
         <is>
@@ -40992,7 +40992,7 @@
         </is>
       </c>
       <c r="N441" t="n">
-        <v>3.46</v>
+        <v>3.2</v>
       </c>
       <c r="O441" t="inlineStr">
         <is>
@@ -41000,7 +41000,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>3.53</v>
+        <v>3.28</v>
       </c>
       <c r="Q441" t="inlineStr">
         <is>
@@ -41008,7 +41008,7 @@
         </is>
       </c>
       <c r="R441" t="n">
-        <v>2.74</v>
+        <v>3.94</v>
       </c>
       <c r="S441" t="inlineStr">
         <is>
@@ -41016,16 +41016,16 @@
         </is>
       </c>
       <c r="T441" t="n">
-        <v>2.61</v>
+        <v>4.64</v>
       </c>
       <c r="U441" t="inlineStr">
         <is>
-          <t>29/10/2023 05:50</t>
+          <t>29/10/2023 05:57</t>
         </is>
       </c>
       <c r="V441" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/omiya-ardija-kofu/SxqzbBBj/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-tochigi-sc/ng2IKYI3/</t>
         </is>
       </c>
     </row>
@@ -41118,6 +41118,558 @@
       <c r="V442" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/japan/j2-league/kofu-kumamoto/Y94UHW2M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E443" s="2" t="n">
+        <v>45234.24652777778</v>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>Kanazawa</t>
+        </is>
+      </c>
+      <c r="G443" t="n">
+        <v>2</v>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>Oita Trinita</t>
+        </is>
+      </c>
+      <c r="I443" t="n">
+        <v>2</v>
+      </c>
+      <c r="J443" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L443" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M443" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="N443" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O443" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P443" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q443" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="R443" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S443" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T443" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U443" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="V443" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-oita-trinita/nHp5BUuj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E444" s="2" t="n">
+        <v>45234.25</v>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>Tokushima</t>
+        </is>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>Fujieda MYFC</t>
+        </is>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L444" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M444" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="N444" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P444" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q444" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:55</t>
+        </is>
+      </c>
+      <c r="R444" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S444" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T444" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V444" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-fujieda-myfc/Q7q9Aled/</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E445" s="2" t="n">
+        <v>45234.25</v>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>Iwaki</t>
+        </is>
+      </c>
+      <c r="G445" t="n">
+        <v>1</v>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I445" t="n">
+        <v>3</v>
+      </c>
+      <c r="J445" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L445" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M445" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="N445" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O445" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P445" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q445" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="R445" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S445" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T445" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U445" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="V445" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-montedio-yamagata/GYgZGjIS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E446" s="2" t="n">
+        <v>45234.25</v>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>Iwata</t>
+        </is>
+      </c>
+      <c r="G446" t="n">
+        <v>5</v>
+      </c>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>Mito</t>
+        </is>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L446" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M446" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N446" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P446" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q446" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R446" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S446" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T446" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="U446" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="V446" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwata-mito/0OttDsHf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E447" s="2" t="n">
+        <v>45234.25</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="G447" t="n">
+        <v>4</v>
+      </c>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L447" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M447" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:34</t>
+        </is>
+      </c>
+      <c r="N447" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P447" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q447" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="R447" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="S447" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T447" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U447" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="V447" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-omiya-ardija/61sxEN1l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E448" s="2" t="n">
+        <v>45234.25</v>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>V-Varen Nagasaki</t>
+        </is>
+      </c>
+      <c r="G448" t="n">
+        <v>2</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Vegalta Sendai</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>1</v>
+      </c>
+      <c r="J448" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="L448" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="N448" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="P448" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="R448" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S448" t="inlineStr">
+        <is>
+          <t>28/10/2023 07:13</t>
+        </is>
+      </c>
+      <c r="T448" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U448" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="V448" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-vegalta-sendai/SCNiZXXd/</t>
         </is>
       </c>
     </row>

--- a/2023/japan_j2-league_2023.xlsx
+++ b/2023/japan_j2-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V448"/>
+  <dimension ref="A1:V452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17041,22 +17041,22 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Tochigi SC</t>
         </is>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>2.43</v>
+        <v>1.79</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -17064,15 +17064,15 @@
         </is>
       </c>
       <c r="L181" t="n">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>21/05/2023 06:57</t>
+          <t>21/05/2023 06:58</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>3.08</v>
+        <v>3.35</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
@@ -17084,11 +17084,11 @@
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>21/05/2023 06:57</t>
+          <t>21/05/2023 06:58</t>
         </is>
       </c>
       <c r="R181" t="n">
-        <v>3.09</v>
+        <v>5.26</v>
       </c>
       <c r="S181" t="inlineStr">
         <is>
@@ -17096,16 +17096,16 @@
         </is>
       </c>
       <c r="T181" t="n">
-        <v>3.98</v>
+        <v>5.37</v>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>21/05/2023 06:59</t>
+          <t>21/05/2023 06:58</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-blaublitz/Y7sDba9U/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tochigi-sc/M3MMI2fn/</t>
         </is>
       </c>
     </row>
@@ -17133,22 +17133,22 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G182" t="n">
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
         <v>1</v>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Tochigi SC</t>
-        </is>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
       <c r="J182" t="n">
-        <v>1.79</v>
+        <v>3.27</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -17156,48 +17156,48 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.85</v>
+        <v>3.95</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
+          <t>21/05/2023 06:59</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>21/05/2023 06:59</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
           <t>21/05/2023 06:58</t>
         </is>
       </c>
-      <c r="N182" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P182" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:58</t>
-        </is>
-      </c>
-      <c r="R182" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="S182" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T182" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="U182" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:58</t>
-        </is>
-      </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-tochigi-sc/M3MMI2fn/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-shimizu-s-pulse/4SBRHM9h/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I185" t="n">
         <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>3.27</v>
+        <v>2.43</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,48 +17432,48 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>3.95</v>
+        <v>2.11</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
+          <t>21/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>21/05/2023 06:57</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>17/05/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
           <t>21/05/2023 06:59</t>
         </is>
       </c>
-      <c r="N185" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="P185" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:59</t>
-        </is>
-      </c>
-      <c r="R185" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S185" t="inlineStr">
-        <is>
-          <t>17/05/2023 12:12</t>
-        </is>
-      </c>
-      <c r="T185" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U185" t="inlineStr">
-        <is>
-          <t>21/05/2023 06:58</t>
-        </is>
-      </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-shimizu-s-pulse/4SBRHM9h/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-blaublitz/Y7sDba9U/</t>
         </is>
       </c>
     </row>
@@ -38293,22 +38293,22 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Tochigi SC</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="I412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J412" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -38316,15 +38316,15 @@
         </is>
       </c>
       <c r="L412" t="n">
-        <v>2.32</v>
+        <v>1.56</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="N412" t="n">
-        <v>3.48</v>
+        <v>4.08</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
@@ -38332,15 +38332,15 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>3.05</v>
+        <v>4.24</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="R412" t="n">
-        <v>3.12</v>
+        <v>5.36</v>
       </c>
       <c r="S412" t="inlineStr">
         <is>
@@ -38348,16 +38348,16 @@
         </is>
       </c>
       <c r="T412" t="n">
-        <v>3.65</v>
+        <v>6.23</v>
       </c>
       <c r="U412" t="inlineStr">
         <is>
-          <t>08/10/2023 06:58</t>
+          <t>08/10/2023 06:59</t>
         </is>
       </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-tochigi-sc/hdQZvc5B/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
         </is>
       </c>
     </row>
@@ -38385,22 +38385,22 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Machida</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J413" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -38408,15 +38408,15 @@
         </is>
       </c>
       <c r="L413" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="N413" t="n">
-        <v>3.91</v>
+        <v>3.66</v>
       </c>
       <c r="O413" t="inlineStr">
         <is>
@@ -38424,15 +38424,15 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="Q413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:53</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="R413" t="n">
-        <v>5</v>
+        <v>3.68</v>
       </c>
       <c r="S413" t="inlineStr">
         <is>
@@ -38440,16 +38440,16 @@
         </is>
       </c>
       <c r="T413" t="n">
-        <v>4.42</v>
+        <v>4.26</v>
       </c>
       <c r="U413" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:52</t>
         </is>
       </c>
       <c r="V413" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kofu/4zfhcvLu/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-vegalta-sendai/WnPwvHKH/</t>
         </is>
       </c>
     </row>
@@ -38477,22 +38477,22 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="I414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J414" t="n">
-        <v>1.57</v>
+        <v>2.49</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -38500,15 +38500,15 @@
         </is>
       </c>
       <c r="L414" t="n">
-        <v>1.56</v>
+        <v>2.73</v>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>08/10/2023 06:57</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="N414" t="n">
-        <v>4.08</v>
+        <v>3.2</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
@@ -38516,15 +38516,15 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>4.24</v>
+        <v>3.09</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="R414" t="n">
-        <v>5.36</v>
+        <v>3.05</v>
       </c>
       <c r="S414" t="inlineStr">
         <is>
@@ -38532,16 +38532,16 @@
         </is>
       </c>
       <c r="T414" t="n">
-        <v>6.23</v>
+        <v>2.92</v>
       </c>
       <c r="U414" t="inlineStr">
         <is>
-          <t>08/10/2023 06:59</t>
+          <t>08/10/2023 06:56</t>
         </is>
       </c>
       <c r="V414" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/chiba-mito/SEInxekU/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-blaublitz/Iwbddbzn/</t>
         </is>
       </c>
     </row>
@@ -38569,22 +38569,22 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Machida</t>
         </is>
       </c>
       <c r="G415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="I415" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J415" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -38592,48 +38592,48 @@
         </is>
       </c>
       <c r="L415" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="M415" t="inlineStr">
         <is>
-          <t>08/10/2023 06:52</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="N415" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>01/10/2023 06:13</t>
+        </is>
+      </c>
+      <c r="P415" t="n">
         <v>3.66</v>
       </c>
-      <c r="O415" t="inlineStr">
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>08/10/2023 06:53</t>
+        </is>
+      </c>
+      <c r="R415" t="n">
+        <v>5</v>
+      </c>
+      <c r="S415" t="inlineStr">
         <is>
           <t>01/10/2023 06:13</t>
         </is>
       </c>
-      <c r="P415" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q415" t="inlineStr">
-        <is>
-          <t>08/10/2023 06:52</t>
-        </is>
-      </c>
-      <c r="R415" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="S415" t="inlineStr">
-        <is>
-          <t>01/10/2023 06:13</t>
-        </is>
-      </c>
       <c r="T415" t="n">
-        <v>4.26</v>
+        <v>4.42</v>
       </c>
       <c r="U415" t="inlineStr">
         <is>
-          <t>08/10/2023 06:52</t>
+          <t>08/10/2023 06:57</t>
         </is>
       </c>
       <c r="V415" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-vegalta-sendai/WnPwvHKH/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/machida-zelvia-kofu/4zfhcvLu/</t>
         </is>
       </c>
     </row>
@@ -38661,22 +38661,22 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="G416" t="n">
+        <v>2</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Tochigi SC</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>Blaublitz</t>
-        </is>
-      </c>
-      <c r="I416" t="n">
-        <v>2</v>
-      </c>
       <c r="J416" t="n">
-        <v>2.49</v>
+        <v>2.2</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         </is>
       </c>
       <c r="L416" t="n">
-        <v>2.73</v>
+        <v>2.32</v>
       </c>
       <c r="M416" t="inlineStr">
         <is>
@@ -38692,7 +38692,7 @@
         </is>
       </c>
       <c r="N416" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="O416" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="Q416" t="inlineStr">
         <is>
@@ -38708,7 +38708,7 @@
         </is>
       </c>
       <c r="R416" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="S416" t="inlineStr">
         <is>
@@ -38716,16 +38716,16 @@
         </is>
       </c>
       <c r="T416" t="n">
-        <v>2.92</v>
+        <v>3.65</v>
       </c>
       <c r="U416" t="inlineStr">
         <is>
-          <t>08/10/2023 06:56</t>
+          <t>08/10/2023 06:58</t>
         </is>
       </c>
       <c r="V416" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-blaublitz/Iwbddbzn/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/montedio-yamagata-tochigi-sc/hdQZvc5B/</t>
         </is>
       </c>
     </row>
@@ -39397,71 +39397,71 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Kanazawa</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J424" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="L424" t="n">
-        <v>2.91</v>
+        <v>2.53</v>
       </c>
       <c r="M424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="N424" t="n">
-        <v>3.39</v>
+        <v>3.56</v>
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="P424" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:16</t>
         </is>
       </c>
       <c r="R424" t="n">
-        <v>2.66</v>
+        <v>3.08</v>
       </c>
       <c r="S424" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="T424" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="U424" t="inlineStr">
         <is>
-          <t>22/10/2023 06:56</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="V424" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-montedio-yamagata/I7PioYRp/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-omiya-ardija/fP8zAH4o/</t>
         </is>
       </c>
     </row>
@@ -39489,62 +39489,62 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Kanazawa</t>
         </is>
       </c>
       <c r="G425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H425" t="inlineStr">
+        <is>
+          <t>Montedio Yamagata</t>
+        </is>
+      </c>
+      <c r="I425" t="n">
         <v>1</v>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>Kusatsu</t>
-        </is>
-      </c>
-      <c r="I425" t="n">
-        <v>2</v>
-      </c>
       <c r="J425" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="L425" t="n">
-        <v>2.02</v>
+        <v>2.91</v>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="N425" t="n">
-        <v>3.51</v>
+        <v>3.39</v>
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="P425" t="n">
-        <v>3.32</v>
+        <v>3.7</v>
       </c>
       <c r="Q425" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="R425" t="n">
-        <v>3.61</v>
+        <v>2.66</v>
       </c>
       <c r="S425" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="T425" t="n">
-        <v>4.22</v>
+        <v>2.38</v>
       </c>
       <c r="U425" t="inlineStr">
         <is>
@@ -39553,7 +39553,7 @@
       </c>
       <c r="V425" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/mito-thespakusatsu-gunma/8YZHizkH/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/kanazawa-montedio-yamagata/I7PioYRp/</t>
         </is>
       </c>
     </row>
@@ -39581,71 +39581,71 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Kusatsu</t>
         </is>
       </c>
       <c r="I426" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J426" t="n">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="L426" t="n">
-        <v>2.51</v>
+        <v>2.02</v>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="N426" t="n">
-        <v>3.07</v>
+        <v>3.51</v>
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="Q426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:58</t>
         </is>
       </c>
       <c r="R426" t="n">
-        <v>3.09</v>
+        <v>3.61</v>
       </c>
       <c r="S426" t="inlineStr">
         <is>
-          <t>14/10/2023 06:42</t>
+          <t>14/10/2023 09:12</t>
         </is>
       </c>
       <c r="T426" t="n">
-        <v>3.35</v>
+        <v>4.22</v>
       </c>
       <c r="U426" t="inlineStr">
         <is>
-          <t>22/10/2023 06:45</t>
+          <t>22/10/2023 06:56</t>
         </is>
       </c>
       <c r="V426" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-vegalta-sendai/Q9pDhGZA/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/mito-thespakusatsu-gunma/8YZHizkH/</t>
         </is>
       </c>
     </row>
@@ -39949,71 +39949,71 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I430" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J430" t="n">
-        <v>2.19</v>
+        <v>2.43</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="L430" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="N430" t="n">
-        <v>3.56</v>
+        <v>3.07</v>
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="P430" t="n">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="Q430" t="inlineStr">
         <is>
-          <t>22/10/2023 06:16</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="R430" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="S430" t="inlineStr">
         <is>
-          <t>14/10/2023 09:12</t>
+          <t>14/10/2023 06:42</t>
         </is>
       </c>
       <c r="T430" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="U430" t="inlineStr">
         <is>
-          <t>22/10/2023 06:58</t>
+          <t>22/10/2023 06:45</t>
         </is>
       </c>
       <c r="V430" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/fujieda-myfc-omiya-ardija/fP8zAH4o/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/blaublitz-vegalta-sendai/Q9pDhGZA/</t>
         </is>
       </c>
     </row>
@@ -41237,22 +41237,22 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="G444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="I444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J444" t="n">
-        <v>2.17</v>
+        <v>1.79</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -41260,15 +41260,15 @@
         </is>
       </c>
       <c r="L444" t="n">
-        <v>2.57</v>
+        <v>1.85</v>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>04/11/2023 05:50</t>
+          <t>04/11/2023 05:54</t>
         </is>
       </c>
       <c r="N444" t="n">
-        <v>3.57</v>
+        <v>3.86</v>
       </c>
       <c r="O444" t="inlineStr">
         <is>
@@ -41276,15 +41276,15 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>3.58</v>
+        <v>4.16</v>
       </c>
       <c r="Q444" t="inlineStr">
         <is>
-          <t>04/11/2023 05:55</t>
+          <t>04/11/2023 05:54</t>
         </is>
       </c>
       <c r="R444" t="n">
-        <v>3.12</v>
+        <v>4.04</v>
       </c>
       <c r="S444" t="inlineStr">
         <is>
@@ -41292,16 +41292,16 @@
         </is>
       </c>
       <c r="T444" t="n">
-        <v>2.75</v>
+        <v>3.89</v>
       </c>
       <c r="U444" t="inlineStr">
         <is>
-          <t>04/11/2023 05:59</t>
+          <t>04/11/2023 05:54</t>
         </is>
       </c>
       <c r="V444" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-fujieda-myfc/Q7q9Aled/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-vegalta-sendai/SCNiZXXd/</t>
         </is>
       </c>
     </row>
@@ -41329,71 +41329,71 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="I445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J445" t="n">
-        <v>2.04</v>
+        <v>2.17</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>29/10/2023 06:12</t>
+          <t>28/10/2023 07:13</t>
         </is>
       </c>
       <c r="L445" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>04/11/2023 05:54</t>
+          <t>04/11/2023 05:50</t>
         </is>
       </c>
       <c r="N445" t="n">
-        <v>3.7</v>
+        <v>3.57</v>
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>29/10/2023 06:12</t>
+          <t>28/10/2023 07:13</t>
         </is>
       </c>
       <c r="P445" t="n">
-        <v>3.91</v>
+        <v>3.58</v>
       </c>
       <c r="Q445" t="inlineStr">
         <is>
-          <t>04/11/2023 05:54</t>
+          <t>04/11/2023 05:55</t>
         </is>
       </c>
       <c r="R445" t="n">
-        <v>3.51</v>
+        <v>3.12</v>
       </c>
       <c r="S445" t="inlineStr">
         <is>
-          <t>29/10/2023 06:12</t>
+          <t>28/10/2023 07:13</t>
         </is>
       </c>
       <c r="T445" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="U445" t="inlineStr">
         <is>
-          <t>04/11/2023 05:54</t>
+          <t>04/11/2023 05:59</t>
         </is>
       </c>
       <c r="V445" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-montedio-yamagata/GYgZGjIS/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/tokushima-fujieda-myfc/Q7q9Aled/</t>
         </is>
       </c>
     </row>
@@ -41513,22 +41513,22 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>Shimizu S-Pulse</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="G447" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="I447" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J447" t="n">
-        <v>1.26</v>
+        <v>2.04</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -41536,15 +41536,15 @@
         </is>
       </c>
       <c r="L447" t="n">
-        <v>1.34</v>
+        <v>2.73</v>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>04/11/2023 05:34</t>
+          <t>04/11/2023 05:54</t>
         </is>
       </c>
       <c r="N447" t="n">
-        <v>6.02</v>
+        <v>3.7</v>
       </c>
       <c r="O447" t="inlineStr">
         <is>
@@ -41552,15 +41552,15 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>5.7</v>
+        <v>3.91</v>
       </c>
       <c r="Q447" t="inlineStr">
         <is>
-          <t>04/11/2023 05:42</t>
+          <t>04/11/2023 05:54</t>
         </is>
       </c>
       <c r="R447" t="n">
-        <v>8.73</v>
+        <v>3.51</v>
       </c>
       <c r="S447" t="inlineStr">
         <is>
@@ -41568,16 +41568,16 @@
         </is>
       </c>
       <c r="T447" t="n">
-        <v>8.75</v>
+        <v>2.43</v>
       </c>
       <c r="U447" t="inlineStr">
         <is>
-          <t>04/11/2023 05:58</t>
+          <t>04/11/2023 05:54</t>
         </is>
       </c>
       <c r="V447" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-omiya-ardija/61sxEN1l/</t>
+          <t>https://www.betexplorer.com/football/japan/j2-league/iwaki-montedio-yamagata/GYgZGjIS/</t>
         </is>
       </c>
     </row>
@@ -41605,71 +41605,439 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Shimizu S-Pulse</t>
         </is>
       </c>
       <c r="G448" t="n">
+        <v>4</v>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>Omiya Ardija</t>
+        </is>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L448" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M448" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:34</t>
+        </is>
+      </c>
+      <c r="N448" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P448" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Q448" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:42</t>
+        </is>
+      </c>
+      <c r="R448" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="S448" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T448" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U448" t="inlineStr">
+        <is>
+          <t>04/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="V448" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/shimizu-s-pulse-omiya-ardija/61sxEN1l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E449" s="2" t="n">
+        <v>45235.21180555555</v>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>Renofa Yamaguchi</t>
+        </is>
+      </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>Machida</t>
+        </is>
+      </c>
+      <c r="I449" t="n">
         <v>2</v>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>Vegalta Sendai</t>
-        </is>
-      </c>
-      <c r="I448" t="n">
+      <c r="J449" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L449" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="M449" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:04</t>
+        </is>
+      </c>
+      <c r="N449" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P449" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q449" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:04</t>
+        </is>
+      </c>
+      <c r="R449" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S449" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T449" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U449" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:04</t>
+        </is>
+      </c>
+      <c r="V449" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/renofa-yamaguchi-machida-zelvia/SArYE3nr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E450" s="2" t="n">
+        <v>45235.25</v>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>Kusatsu</t>
+        </is>
+      </c>
+      <c r="G450" t="n">
         <v>1</v>
       </c>
-      <c r="J448" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>28/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M448" t="inlineStr">
-        <is>
-          <t>04/11/2023 05:54</t>
-        </is>
-      </c>
-      <c r="N448" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="O448" t="inlineStr">
-        <is>
-          <t>28/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="P448" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="Q448" t="inlineStr">
-        <is>
-          <t>04/11/2023 05:54</t>
-        </is>
-      </c>
-      <c r="R448" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="S448" t="inlineStr">
-        <is>
-          <t>28/10/2023 07:13</t>
-        </is>
-      </c>
-      <c r="T448" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U448" t="inlineStr">
-        <is>
-          <t>04/11/2023 05:54</t>
-        </is>
-      </c>
-      <c r="V448" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/japan/j2-league/v-varen-nagasaki-vegalta-sendai/SCNiZXXd/</t>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>Chiba</t>
+        </is>
+      </c>
+      <c r="I450" t="n">
+        <v>2</v>
+      </c>
+      <c r="J450" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L450" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="M450" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:56</t>
+        </is>
+      </c>
+      <c r="N450" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P450" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q450" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="R450" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S450" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T450" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U450" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:50</t>
+        </is>
+      </c>
+      <c r="V450" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/thespakusatsu-gunma-chiba/vmReYim3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E451" s="2" t="n">
+        <v>45235.25</v>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Okayama</t>
+        </is>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Blaublitz</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>2</v>
+      </c>
+      <c r="J451" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L451" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M451" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="N451" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P451" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q451" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:58</t>
+        </is>
+      </c>
+      <c r="R451" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S451" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T451" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="U451" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:52</t>
+        </is>
+      </c>
+      <c r="V451" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/okayama-blaublitz/C0P3WVHF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>japan</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>j2-league</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E452" s="2" t="n">
+        <v>45235.25</v>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Verdy</t>
+        </is>
+      </c>
+      <c r="G452" t="n">
+        <v>1</v>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>Tochigi SC</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
+      <c r="J452" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L452" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M452" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:53</t>
+        </is>
+      </c>
+      <c r="N452" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P452" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q452" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:54</t>
+        </is>
+      </c>
+      <c r="R452" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="S452" t="inlineStr">
+        <is>
+          <t>29/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T452" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>05/11/2023 05:59</t>
+        </is>
+      </c>
+      <c r="V452" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/japan/j2-league/verdy-tochigi-sc/Y9QaXB29/</t>
         </is>
       </c>
     </row>
